--- a/Min_max_data/tgtg.xlsx
+++ b/Min_max_data/tgtg.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="39">
   <si>
     <t>warehouse</t>
   </si>
@@ -104,6 +104,18 @@
   </si>
   <si>
     <t>Sharqya</t>
+  </si>
+  <si>
+    <t>El-Mahala</t>
+  </si>
+  <si>
+    <t>Bani sweif</t>
+  </si>
+  <si>
+    <t>Mansoura FC</t>
+  </si>
+  <si>
+    <t>Sohag</t>
   </si>
   <si>
     <t>Alexandria</t>
@@ -476,7 +488,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z9"/>
+  <dimension ref="A1:Z106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -573,10 +585,10 @@
         <v>20262</v>
       </c>
       <c r="E2">
-        <v>467.7223084552302</v>
+        <v>465.2685039859564</v>
       </c>
       <c r="F2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G2">
         <v>797</v>
@@ -591,7 +603,7 @@
         <v>67</v>
       </c>
       <c r="K2">
-        <v>31337.39466650042</v>
+        <v>31172.98976705908</v>
       </c>
       <c r="L2">
         <v>1000</v>
@@ -633,10 +645,10 @@
         <v>0.03950664187626542</v>
       </c>
       <c r="Y2">
-        <v>0.01975332093813271</v>
+        <v>0.009876660469066356</v>
       </c>
       <c r="Z2">
-        <v>0.01975332093813271</v>
+        <v>0.009876660469066356</v>
       </c>
     </row>
     <row r="3" spans="1:26">
@@ -653,10 +665,10 @@
         <v>8938</v>
       </c>
       <c r="E3">
-        <v>146.4595592086528</v>
+        <v>146.7787429309877</v>
       </c>
       <c r="F3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G3">
         <v>703</v>
@@ -668,55 +680,55 @@
         <v>1000</v>
       </c>
       <c r="J3">
-        <v>197</v>
+        <v>170</v>
       </c>
       <c r="K3">
-        <v>28852.5331641046</v>
+        <v>24952.38629826791</v>
       </c>
       <c r="L3">
-        <v>0.04430956470699646</v>
+        <v>0.02147504712674883</v>
       </c>
       <c r="M3">
-        <v>0.04352940924961442</v>
+        <v>0.04144494412416212</v>
       </c>
       <c r="N3">
-        <v>0.04586606378727823</v>
+        <v>0.04378669100333762</v>
       </c>
       <c r="O3">
-        <v>0.04819132926951882</v>
+        <v>0.04611702400657888</v>
       </c>
       <c r="P3">
-        <v>0.05050528876075986</v>
+        <v>0.04843602637933436</v>
       </c>
       <c r="Q3">
-        <v>0.05280802451962625</v>
+        <v>0.05074378055949765</v>
       </c>
       <c r="R3">
-        <v>0.05509961800869167</v>
+        <v>0.05304036818717629</v>
       </c>
       <c r="S3">
-        <v>0.05738014990408501</v>
+        <v>0.05532587011431906</v>
       </c>
       <c r="T3">
         <v>0.0428093231783465</v>
       </c>
       <c r="U3">
-        <v>0.03133327730186217</v>
+        <v>0.03128117350002368</v>
       </c>
       <c r="V3">
         <v>0.0560458616896264</v>
       </c>
       <c r="W3">
-        <v>0.04445917393333398</v>
+        <v>0.044098814639697</v>
       </c>
       <c r="X3">
         <v>0.04104586168962643</v>
       </c>
       <c r="Y3">
-        <v>0.02052293084481321</v>
+        <v>0.01026146542240661</v>
       </c>
       <c r="Z3">
-        <v>0.02052293084481321</v>
+        <v>0.01026146542240661</v>
       </c>
     </row>
     <row r="4" spans="1:26">
@@ -736,7 +748,7 @@
         <v>153.4451305833968</v>
       </c>
       <c r="F4" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G4">
         <v>8</v>
@@ -748,34 +760,34 @@
         <v>1000</v>
       </c>
       <c r="J4">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K4">
-        <v>23783.9952404265</v>
+        <v>23630.55010984311</v>
       </c>
       <c r="L4">
-        <v>0.1130339272636025</v>
+        <v>0.1219162770621072</v>
       </c>
       <c r="M4">
-        <v>0.0804786182268358</v>
+        <v>0.06649350215424014</v>
       </c>
       <c r="N4">
         <v>0.09471899360827861</v>
       </c>
       <c r="O4">
-        <v>0.1056021532479605</v>
+        <v>0.1231706823805899</v>
       </c>
       <c r="P4">
-        <v>0.1162267496996586</v>
+        <v>0.1463414153913949</v>
       </c>
       <c r="Q4">
-        <v>0.1293893300232807</v>
+        <v>0.1475270523144624</v>
       </c>
       <c r="R4">
-        <v>0.1475270523144624</v>
+        <v>0.1923940495610696</v>
       </c>
       <c r="S4">
-        <v>0.1597802569013181</v>
+        <v>0.2136059931664483</v>
       </c>
       <c r="T4">
         <v>0.1013462337722004</v>
@@ -793,10 +805,10 @@
         <v>0.1165702471985391</v>
       </c>
       <c r="Y4">
-        <v>0.05828512359926953</v>
+        <v>0.02914256179963477</v>
       </c>
       <c r="Z4">
-        <v>0.05828512359926953</v>
+        <v>0.02914256179963477</v>
       </c>
     </row>
     <row r="5" spans="1:26">
@@ -804,34 +816,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C5">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="D5">
-        <v>12595</v>
+        <v>9570</v>
       </c>
       <c r="E5">
-        <v>429.8773792159759</v>
+        <v>530.5418328679102</v>
       </c>
       <c r="F5" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G5">
-        <v>703</v>
+        <v>236</v>
       </c>
       <c r="H5">
-        <v>1123</v>
+        <v>701</v>
       </c>
       <c r="I5">
         <v>1000</v>
       </c>
       <c r="J5">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K5">
-        <v>14185.9535141272</v>
+        <v>16977.33865177313</v>
       </c>
       <c r="L5">
         <v>1000</v>
@@ -858,25 +870,25 @@
         <v>1000</v>
       </c>
       <c r="T5">
-        <v>0.0336820984054224</v>
+        <v>0.04968963896478523</v>
       </c>
       <c r="U5">
-        <v>0.02966173605301163</v>
+        <v>1000</v>
       </c>
       <c r="V5">
-        <v>0.0519412755206637</v>
+        <v>1000</v>
       </c>
       <c r="W5">
-        <v>0.0336820984054224</v>
+        <v>0.04859759336077596</v>
       </c>
       <c r="X5">
-        <v>0.03694127552066378</v>
+        <v>1000</v>
       </c>
       <c r="Y5">
-        <v>0.01847063776033189</v>
+        <v>0.03726722922358892</v>
       </c>
       <c r="Z5">
-        <v>0.01847063776033189</v>
+        <v>0.03726722922358892</v>
       </c>
     </row>
     <row r="6" spans="1:26">
@@ -884,34 +896,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C6">
-        <v>387</v>
+        <v>24</v>
       </c>
       <c r="D6">
-        <v>11915</v>
+        <v>12905</v>
       </c>
       <c r="E6">
-        <v>31.03091569009109</v>
+        <v>90.38460000000001</v>
       </c>
       <c r="F6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G6">
-        <v>236</v>
+        <v>797</v>
       </c>
       <c r="H6">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="I6">
         <v>1000</v>
       </c>
       <c r="J6">
-        <v>333</v>
+        <v>116</v>
       </c>
       <c r="K6">
-        <v>10333.29492480033</v>
+        <v>10484.6136</v>
       </c>
       <c r="L6">
         <v>1000</v>
@@ -938,25 +950,25 @@
         <v>1000</v>
       </c>
       <c r="T6">
-        <v>0.03696245359965939</v>
+        <v>0.06337202072538854</v>
       </c>
       <c r="U6">
-        <v>0.03412018722512575</v>
+        <v>0.04071527512106869</v>
       </c>
       <c r="V6">
-        <v>0.0544360137365221</v>
+        <v>0.07311294113464695</v>
       </c>
       <c r="W6">
-        <v>0.03776000000001269</v>
+        <v>0.06337202072538854</v>
       </c>
       <c r="X6">
-        <v>0.03943601373652215</v>
+        <v>0.04874196075643137</v>
       </c>
       <c r="Y6">
-        <v>0.01971800686826108</v>
+        <v>0.01218549018910784</v>
       </c>
       <c r="Z6">
-        <v>0.01971800686826108</v>
+        <v>0.01218549018910784</v>
       </c>
     </row>
     <row r="7" spans="1:26">
@@ -964,34 +976,34 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C7">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="D7">
-        <v>11044</v>
+        <v>12453</v>
       </c>
       <c r="E7">
-        <v>606.9194596894308</v>
+        <v>579.8780998116828</v>
       </c>
       <c r="F7" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G7">
-        <v>170</v>
+        <v>236</v>
       </c>
       <c r="H7">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="I7">
         <v>1000</v>
       </c>
       <c r="J7">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="K7">
-        <v>9103.791895341463</v>
+        <v>10437.80579661029</v>
       </c>
       <c r="L7">
         <v>1000</v>
@@ -1018,25 +1030,25 @@
         <v>1000</v>
       </c>
       <c r="T7">
-        <v>0.1021901483884154</v>
+        <v>0.04329430818044605</v>
       </c>
       <c r="U7">
-        <v>0.05993885856418625</v>
+        <v>1000</v>
       </c>
       <c r="V7">
-        <v>0.1095924507113025</v>
+        <v>1000</v>
       </c>
       <c r="W7">
-        <v>0.1021901483884154</v>
+        <v>0.04694348377940565</v>
       </c>
       <c r="X7">
-        <v>0.07306163380753505</v>
+        <v>1000</v>
       </c>
       <c r="Y7">
-        <v>0.03653081690376753</v>
+        <v>0.03247073113533454</v>
       </c>
       <c r="Z7">
-        <v>0.03653081690376753</v>
+        <v>0.03247073113533454</v>
       </c>
     </row>
     <row r="8" spans="1:26">
@@ -1044,79 +1056,79 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C8">
-        <v>9</v>
+        <v>387</v>
       </c>
       <c r="D8">
-        <v>10616</v>
+        <v>11915</v>
       </c>
       <c r="E8">
-        <v>349.3601972638211</v>
+        <v>31.03091569009109</v>
       </c>
       <c r="F8" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G8">
-        <v>797</v>
+        <v>236</v>
       </c>
       <c r="H8">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="I8">
         <v>1000</v>
       </c>
       <c r="J8">
-        <v>15</v>
+        <v>327</v>
       </c>
       <c r="K8">
-        <v>5240.402958957317</v>
+        <v>10147.10943065979</v>
       </c>
       <c r="L8">
-        <v>0.05642080414903152</v>
+        <v>1000</v>
       </c>
       <c r="M8">
-        <v>0.01171089882936046</v>
+        <v>1000</v>
       </c>
       <c r="N8">
-        <v>0.02140000766436673</v>
+        <v>1000</v>
       </c>
       <c r="O8">
-        <v>0.05450555544297408</v>
+        <v>1000</v>
       </c>
       <c r="P8">
-        <v>0.08304410166976095</v>
+        <v>1000</v>
       </c>
       <c r="Q8">
-        <v>0.09139090438538081</v>
+        <v>1000</v>
       </c>
       <c r="R8">
-        <v>0.1155438043953897</v>
+        <v>1000</v>
       </c>
       <c r="S8">
-        <v>0.1233119265650663</v>
+        <v>1000</v>
       </c>
       <c r="T8">
-        <v>0.0479184822837686</v>
+        <v>0.03696245359965939</v>
       </c>
       <c r="U8">
-        <v>0.0349656017083718</v>
+        <v>0.03409281671240651</v>
       </c>
       <c r="V8">
-        <v>0.06280016838512835</v>
+        <v>0.0544360137365221</v>
       </c>
       <c r="W8">
-        <v>0.04285532626218908</v>
+        <v>0.03776000000000048</v>
       </c>
       <c r="X8">
-        <v>0.04186677892341896</v>
+        <v>0.03943601373652215</v>
       </c>
       <c r="Y8">
-        <v>0.01712000613149338</v>
+        <v>0.009859003434130539</v>
       </c>
       <c r="Z8">
-        <v>0.01712000613149338</v>
+        <v>0.009859003434130539</v>
       </c>
     </row>
     <row r="9" spans="1:26">
@@ -1124,79 +1136,7839 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9">
+        <v>13</v>
+      </c>
+      <c r="D9">
+        <v>12595</v>
+      </c>
+      <c r="E9">
+        <v>430.6131734632496</v>
+      </c>
+      <c r="F9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9">
+        <v>703</v>
+      </c>
+      <c r="H9">
+        <v>1123</v>
+      </c>
+      <c r="I9">
+        <v>1000</v>
+      </c>
+      <c r="J9">
+        <v>21</v>
+      </c>
+      <c r="K9">
+        <v>9042.876642728243</v>
+      </c>
+      <c r="L9">
+        <v>1000</v>
+      </c>
+      <c r="M9">
+        <v>1000</v>
+      </c>
+      <c r="N9">
+        <v>1000</v>
+      </c>
+      <c r="O9">
+        <v>1000</v>
+      </c>
+      <c r="P9">
+        <v>1000</v>
+      </c>
+      <c r="Q9">
+        <v>1000</v>
+      </c>
+      <c r="R9">
+        <v>1000</v>
+      </c>
+      <c r="S9">
+        <v>1000</v>
+      </c>
+      <c r="T9">
+        <v>0.03719804703577505</v>
+      </c>
+      <c r="U9">
+        <v>0.03290168094542217</v>
+      </c>
+      <c r="V9">
+        <v>0.0519412755206637</v>
+      </c>
+      <c r="W9">
+        <v>0.03544007272059872</v>
+      </c>
+      <c r="X9">
+        <v>0.03694127552066378</v>
+      </c>
+      <c r="Y9">
+        <v>0.009235318880165945</v>
+      </c>
+      <c r="Z9">
+        <v>0.009235318880165945</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10">
+        <v>15</v>
+      </c>
+      <c r="D10">
+        <v>11044</v>
+      </c>
+      <c r="E10">
+        <v>597.8677376849346</v>
+      </c>
+      <c r="F10" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10">
+        <v>170</v>
+      </c>
+      <c r="H10">
+        <v>704</v>
+      </c>
+      <c r="I10">
+        <v>1000</v>
+      </c>
+      <c r="J10">
+        <v>15</v>
+      </c>
+      <c r="K10">
+        <v>8968.01606527402</v>
+      </c>
+      <c r="L10">
+        <v>0.07307327490707817</v>
+      </c>
+      <c r="M10">
+        <v>0.128198257777755</v>
+      </c>
+      <c r="N10">
+        <v>0.1282168332758649</v>
+      </c>
+      <c r="O10">
+        <v>0.1282168332758649</v>
+      </c>
+      <c r="P10">
+        <v>0.1282168332758649</v>
+      </c>
+      <c r="Q10">
+        <v>0.1282168332758649</v>
+      </c>
+      <c r="R10">
+        <v>0.1282168332758649</v>
+      </c>
+      <c r="S10">
+        <v>0.1282354079824147</v>
+      </c>
+      <c r="T10">
+        <v>0.1021901483884154</v>
+      </c>
+      <c r="U10">
+        <v>0.05993885856418625</v>
+      </c>
+      <c r="V10">
+        <v>0.1095924507113025</v>
+      </c>
+      <c r="W10">
+        <v>0.1021901483884154</v>
+      </c>
+      <c r="X10">
+        <v>0.07306163380753505</v>
+      </c>
+      <c r="Y10">
+        <v>0.01826540845188376</v>
+      </c>
+      <c r="Z10">
+        <v>0.01826540845188376</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11">
+        <v>9</v>
+      </c>
+      <c r="D11">
+        <v>10616</v>
+      </c>
+      <c r="E11">
+        <v>349.3610419412757</v>
+      </c>
+      <c r="F11" t="s">
+        <v>34</v>
+      </c>
+      <c r="G11">
+        <v>797</v>
+      </c>
+      <c r="H11">
+        <v>702</v>
+      </c>
+      <c r="I11">
+        <v>1000</v>
+      </c>
+      <c r="J11">
+        <v>18</v>
+      </c>
+      <c r="K11">
+        <v>6288.498754942963</v>
+      </c>
+      <c r="L11">
+        <v>0.01726851774605979</v>
+      </c>
+      <c r="M11">
+        <v>0.01170850935989889</v>
+      </c>
+      <c r="N11">
+        <v>0.02139764162107635</v>
+      </c>
+      <c r="O11">
+        <v>0.05450326944174359</v>
+      </c>
+      <c r="P11">
+        <v>0.0830418846685676</v>
+      </c>
+      <c r="Q11">
+        <v>0.09138870756495256</v>
+      </c>
+      <c r="R11">
+        <v>0.1155416659714538</v>
+      </c>
+      <c r="S11">
+        <v>0.123309806922771</v>
+      </c>
+      <c r="T11">
+        <v>0.0479184822837686</v>
+      </c>
+      <c r="U11">
+        <v>0.03468666762667186</v>
+      </c>
+      <c r="V11">
+        <v>0.06280016838512835</v>
+      </c>
+      <c r="W11">
+        <v>0.03675800724116261</v>
+      </c>
+      <c r="X11">
+        <v>0.04186677892341896</v>
+      </c>
+      <c r="Y11">
+        <v>0.01046669473085474</v>
+      </c>
+      <c r="Z11">
+        <v>0.01046669473085474</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12">
+        <v>6</v>
+      </c>
+      <c r="D12">
+        <v>3421</v>
+      </c>
+      <c r="E12">
+        <v>51.90652621880515</v>
+      </c>
+      <c r="F12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G12">
+        <v>797</v>
+      </c>
+      <c r="H12">
+        <v>702</v>
+      </c>
+      <c r="I12">
+        <v>1000</v>
+      </c>
+      <c r="J12">
+        <v>84</v>
+      </c>
+      <c r="K12">
+        <v>4360.148202379632</v>
+      </c>
+      <c r="L12">
+        <v>0.01599002428805407</v>
+      </c>
+      <c r="M12">
+        <v>0.02184531720744491</v>
+      </c>
+      <c r="N12">
+        <v>0.02201552107762327</v>
+      </c>
+      <c r="O12">
+        <v>0.02201552107762327</v>
+      </c>
+      <c r="P12">
+        <v>0.02201552107762327</v>
+      </c>
+      <c r="Q12">
+        <v>0.02201552107762327</v>
+      </c>
+      <c r="R12">
+        <v>0.02201552107762327</v>
+      </c>
+      <c r="S12">
+        <v>0.02218566572543527</v>
+      </c>
+      <c r="T12">
+        <v>0.03414589964685187</v>
+      </c>
+      <c r="U12">
+        <v>0.03232361608058078</v>
+      </c>
+      <c r="V12">
+        <v>0.0611765944008297</v>
+      </c>
+      <c r="W12">
+        <v>0.03414589964685187</v>
+      </c>
+      <c r="X12">
+        <v>0.04617659440082973</v>
+      </c>
+      <c r="Y12">
+        <v>0.01154414860020743</v>
+      </c>
+      <c r="Z12">
+        <v>0.01154414860020743</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>12916</v>
+      </c>
+      <c r="E13">
+        <v>129.678189355901</v>
+      </c>
+      <c r="F13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13">
+        <v>797</v>
+      </c>
+      <c r="H13">
+        <v>702</v>
+      </c>
+      <c r="I13">
+        <v>1000</v>
+      </c>
+      <c r="J13">
+        <v>33</v>
+      </c>
+      <c r="K13">
+        <v>4279.380248744734</v>
+      </c>
+      <c r="L13">
+        <v>1000</v>
+      </c>
+      <c r="M13">
+        <v>1000</v>
+      </c>
+      <c r="N13">
+        <v>1000</v>
+      </c>
+      <c r="O13">
+        <v>1000</v>
+      </c>
+      <c r="P13">
+        <v>1000</v>
+      </c>
+      <c r="Q13">
+        <v>1000</v>
+      </c>
+      <c r="R13">
+        <v>1000</v>
+      </c>
+      <c r="S13">
+        <v>1000</v>
+      </c>
+      <c r="T13">
+        <v>0.03857908360995654</v>
+      </c>
+      <c r="U13">
+        <v>0.02487160108410229</v>
+      </c>
+      <c r="V13">
+        <v>0.0449452185501408</v>
+      </c>
+      <c r="W13">
+        <v>0.04000399251344766</v>
+      </c>
+      <c r="X13">
+        <v>0.02996347903342729</v>
+      </c>
+      <c r="Y13">
+        <v>0.007490869758356823</v>
+      </c>
+      <c r="Z13">
+        <v>0.007490869758356823</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14">
+        <v>37</v>
+      </c>
+      <c r="D14">
+        <v>2506</v>
+      </c>
+      <c r="E14">
+        <v>124.1862618089282</v>
+      </c>
+      <c r="F14" t="s">
+        <v>36</v>
+      </c>
+      <c r="G14">
+        <v>337</v>
+      </c>
+      <c r="H14">
+        <v>703</v>
+      </c>
+      <c r="I14">
+        <v>1000</v>
+      </c>
+      <c r="J14">
+        <v>33</v>
+      </c>
+      <c r="K14">
+        <v>4098.146639694629</v>
+      </c>
+      <c r="L14">
+        <v>1000</v>
+      </c>
+      <c r="M14">
+        <v>1000</v>
+      </c>
+      <c r="N14">
+        <v>1000</v>
+      </c>
+      <c r="O14">
+        <v>1000</v>
+      </c>
+      <c r="P14">
+        <v>1000</v>
+      </c>
+      <c r="Q14">
+        <v>1000</v>
+      </c>
+      <c r="R14">
+        <v>1000</v>
+      </c>
+      <c r="S14">
+        <v>1000</v>
+      </c>
+      <c r="T14">
+        <v>0.03851792012900746</v>
+      </c>
+      <c r="U14">
+        <v>0.0348617616651192</v>
+      </c>
+      <c r="V14">
+        <v>0.0565589349607467</v>
+      </c>
+      <c r="W14">
+        <v>0.03851792012900746</v>
+      </c>
+      <c r="X14">
+        <v>0.04155893496074676</v>
+      </c>
+      <c r="Y14">
+        <v>0.01038973374018669</v>
+      </c>
+      <c r="Z14">
+        <v>0.01038973374018669</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15">
+        <v>22</v>
+      </c>
+      <c r="D15">
+        <v>12452</v>
+      </c>
+      <c r="E15">
+        <v>499.446798857493</v>
+      </c>
+      <c r="F15" t="s">
+        <v>37</v>
+      </c>
+      <c r="G15">
+        <v>236</v>
+      </c>
+      <c r="H15">
+        <v>701</v>
+      </c>
+      <c r="I15">
+        <v>1000</v>
+      </c>
+      <c r="J15">
+        <v>8</v>
+      </c>
+      <c r="K15">
+        <v>3995.574390859944</v>
+      </c>
+      <c r="L15">
+        <v>1000</v>
+      </c>
+      <c r="M15">
+        <v>1000</v>
+      </c>
+      <c r="N15">
+        <v>1000</v>
+      </c>
+      <c r="O15">
+        <v>1000</v>
+      </c>
+      <c r="P15">
+        <v>1000</v>
+      </c>
+      <c r="Q15">
+        <v>1000</v>
+      </c>
+      <c r="R15">
+        <v>1000</v>
+      </c>
+      <c r="S15">
+        <v>1000</v>
+      </c>
+      <c r="T15">
+        <v>0.05922161712349609</v>
+      </c>
+      <c r="U15">
+        <v>1000</v>
+      </c>
+      <c r="V15">
+        <v>1000</v>
+      </c>
+      <c r="W15">
+        <v>0.05916686188259847</v>
+      </c>
+      <c r="X15">
+        <v>1000</v>
+      </c>
+      <c r="Y15">
+        <v>0.04441621284262207</v>
+      </c>
+      <c r="Z15">
+        <v>0.04441621284262207</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16">
+        <v>53</v>
+      </c>
+      <c r="D16">
+        <v>2836</v>
+      </c>
+      <c r="E16">
+        <v>90.68611348432724</v>
+      </c>
+      <c r="F16" t="s">
+        <v>35</v>
+      </c>
+      <c r="G16">
+        <v>401</v>
+      </c>
+      <c r="H16">
+        <v>1126</v>
+      </c>
+      <c r="I16">
+        <v>1000</v>
+      </c>
+      <c r="J16">
+        <v>41</v>
+      </c>
+      <c r="K16">
+        <v>3718.130652857417</v>
+      </c>
+      <c r="L16">
+        <v>0.01960958395321906</v>
+      </c>
+      <c r="M16">
+        <v>0.04533119108802926</v>
+      </c>
+      <c r="N16">
+        <v>0.04540933174392382</v>
+      </c>
+      <c r="O16">
+        <v>0.04540933174392382</v>
+      </c>
+      <c r="P16">
+        <v>0.04540933174392382</v>
+      </c>
+      <c r="Q16">
+        <v>0.04540933174392382</v>
+      </c>
+      <c r="R16">
+        <v>0.04540933174392382</v>
+      </c>
+      <c r="S16">
+        <v>0.04548745960907397</v>
+      </c>
+      <c r="T16">
+        <v>0.04370933174392382</v>
+      </c>
+      <c r="U16">
+        <v>0.0340938655345227</v>
+      </c>
+      <c r="V16">
+        <v>0.05809438196691895</v>
+      </c>
+      <c r="W16">
+        <v>0.04282433694025635</v>
+      </c>
+      <c r="X16">
+        <v>0.038879254463338</v>
+      </c>
+      <c r="Y16">
+        <v>0.0097198136158345</v>
+      </c>
+      <c r="Z16">
+        <v>0.0097198136158345</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17">
+        <v>8934</v>
+      </c>
+      <c r="E17">
+        <v>153.3586729020601</v>
+      </c>
+      <c r="F17" t="s">
+        <v>38</v>
+      </c>
+      <c r="G17">
+        <v>170</v>
+      </c>
+      <c r="H17">
+        <v>704</v>
+      </c>
+      <c r="I17">
+        <v>1000</v>
+      </c>
+      <c r="J17">
+        <v>23</v>
+      </c>
+      <c r="K17">
+        <v>3527.249476747383</v>
+      </c>
+      <c r="L17">
+        <v>0.04893846262288288</v>
+      </c>
+      <c r="M17">
+        <v>0.0482153933429279</v>
+      </c>
+      <c r="N17">
+        <v>0.0789268894771163</v>
+      </c>
+      <c r="O17">
+        <v>0.1074002878789337</v>
+      </c>
+      <c r="P17">
+        <v>0.1450268478839667</v>
+      </c>
+      <c r="Q17">
+        <v>0.1653949774037544</v>
+      </c>
+      <c r="R17">
+        <v>0.1842190094109191</v>
+      </c>
+      <c r="S17">
+        <v>0.2068851641027979</v>
+      </c>
+      <c r="T17">
+        <v>0.04893846262288282</v>
+      </c>
+      <c r="U17">
+        <v>0.0815991730389773</v>
+      </c>
+      <c r="V17">
+        <v>0.1748553707978085</v>
+      </c>
+      <c r="W17">
+        <v>0.09494555226881862</v>
+      </c>
+      <c r="X17">
+        <v>0.1165702471985391</v>
+      </c>
+      <c r="Y17">
+        <v>0.02914256179963477</v>
+      </c>
+      <c r="Z17">
+        <v>0.02914256179963477</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18">
+        <v>6</v>
+      </c>
+      <c r="D18">
+        <v>13010</v>
+      </c>
+      <c r="E18">
+        <v>171.3141772222619</v>
+      </c>
+      <c r="F18" t="s">
+        <v>36</v>
+      </c>
+      <c r="G18">
+        <v>337</v>
+      </c>
+      <c r="H18">
+        <v>703</v>
+      </c>
+      <c r="I18">
+        <v>1000</v>
+      </c>
+      <c r="J18">
+        <v>18</v>
+      </c>
+      <c r="K18">
+        <v>3083.655190000715</v>
+      </c>
+      <c r="L18">
+        <v>1000</v>
+      </c>
+      <c r="M18">
+        <v>1000</v>
+      </c>
+      <c r="N18">
+        <v>1000</v>
+      </c>
+      <c r="O18">
+        <v>1000</v>
+      </c>
+      <c r="P18">
+        <v>1000</v>
+      </c>
+      <c r="Q18">
+        <v>1000</v>
+      </c>
+      <c r="R18">
+        <v>1000</v>
+      </c>
+      <c r="S18">
+        <v>1000</v>
+      </c>
+      <c r="T18">
+        <v>0.04304062320238747</v>
+      </c>
+      <c r="U18">
+        <v>0.03850101826486958</v>
+      </c>
+      <c r="V18">
+        <v>0.07000145466409941</v>
+      </c>
+      <c r="W18">
+        <v>0.04304062320238747</v>
+      </c>
+      <c r="X18">
+        <v>0.05500145466409941</v>
+      </c>
+      <c r="Y18">
+        <v>0.01375036366602485</v>
+      </c>
+      <c r="Z18">
+        <v>0.01375036366602485</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19">
+        <v>13</v>
+      </c>
+      <c r="D19">
+        <v>11931</v>
+      </c>
+      <c r="E19">
+        <v>176.967422014489</v>
+      </c>
+      <c r="F19" t="s">
+        <v>34</v>
+      </c>
+      <c r="G19">
+        <v>797</v>
+      </c>
+      <c r="H19">
+        <v>702</v>
+      </c>
+      <c r="I19">
+        <v>1000</v>
+      </c>
+      <c r="J19">
+        <v>17</v>
+      </c>
+      <c r="K19">
+        <v>3008.446174246312</v>
+      </c>
+      <c r="L19">
+        <v>0.1107164722890002</v>
+      </c>
+      <c r="M19">
+        <v>0.1150838892637283</v>
+      </c>
+      <c r="N19">
+        <v>0.1151628899275552</v>
+      </c>
+      <c r="O19">
+        <v>0.1151628899275552</v>
+      </c>
+      <c r="P19">
+        <v>0.1151628899275552</v>
+      </c>
+      <c r="Q19">
+        <v>0.1151628899275552</v>
+      </c>
+      <c r="R19">
+        <v>0.1151628899275552</v>
+      </c>
+      <c r="S19">
+        <v>0.1152418764871123</v>
+      </c>
+      <c r="T19">
+        <v>0.09865693591695304</v>
+      </c>
+      <c r="U19">
+        <v>0.08066519038089116</v>
+      </c>
+      <c r="V19">
+        <v>0.1251057311928895</v>
+      </c>
+      <c r="W19">
+        <v>0.100526936401384</v>
+      </c>
+      <c r="X19">
+        <v>0.08927474917493747</v>
+      </c>
+      <c r="Y19">
+        <v>0.02231868729373437</v>
+      </c>
+      <c r="Z19">
+        <v>0.02231868729373437</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20">
+        <v>37</v>
+      </c>
+      <c r="D20">
+        <v>1064</v>
+      </c>
+      <c r="E20">
+        <v>75.12225591891203</v>
+      </c>
+      <c r="F20" t="s">
+        <v>38</v>
+      </c>
+      <c r="G20">
+        <v>339</v>
+      </c>
+      <c r="H20">
+        <v>704</v>
+      </c>
+      <c r="I20">
+        <v>1000</v>
+      </c>
+      <c r="J20">
+        <v>37</v>
+      </c>
+      <c r="K20">
+        <v>2779.523468999745</v>
+      </c>
+      <c r="L20">
+        <v>0.02754361270016787</v>
+      </c>
+      <c r="M20">
+        <v>0.06084531403231005</v>
+      </c>
+      <c r="N20">
+        <v>0.0609718010135996</v>
+      </c>
+      <c r="O20">
+        <v>0.0609718010135996</v>
+      </c>
+      <c r="P20">
+        <v>0.0609718010135996</v>
+      </c>
+      <c r="Q20">
+        <v>0.0609718010135996</v>
+      </c>
+      <c r="R20">
+        <v>0.0609718010135996</v>
+      </c>
+      <c r="S20">
+        <v>0.06109825392850542</v>
+      </c>
+      <c r="T20">
+        <v>0.05548191784951757</v>
+      </c>
+      <c r="U20">
+        <v>0.04378236998440729</v>
+      </c>
+      <c r="V20">
+        <v>0.0688726934676346</v>
+      </c>
+      <c r="W20">
+        <v>0.05379905756458226</v>
+      </c>
+      <c r="X20">
+        <v>0.05387269346763468</v>
+      </c>
+      <c r="Y20">
+        <v>0.01346817336690867</v>
+      </c>
+      <c r="Z20">
+        <v>0.01346817336690867</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21">
+        <v>8</v>
+      </c>
+      <c r="D21">
+        <v>23125</v>
+      </c>
+      <c r="E21">
+        <v>290.16</v>
+      </c>
+      <c r="F21" t="s">
+        <v>38</v>
+      </c>
+      <c r="G21">
+        <v>339</v>
+      </c>
+      <c r="H21">
+        <v>704</v>
+      </c>
+      <c r="I21">
+        <v>1000</v>
+      </c>
+      <c r="J21">
+        <v>9</v>
+      </c>
+      <c r="K21">
+        <v>2611.44</v>
+      </c>
+      <c r="L21">
+        <v>1000</v>
+      </c>
+      <c r="M21">
+        <v>1000</v>
+      </c>
+      <c r="N21">
+        <v>1000</v>
+      </c>
+      <c r="O21">
+        <v>1000</v>
+      </c>
+      <c r="P21">
+        <v>1000</v>
+      </c>
+      <c r="Q21">
+        <v>1000</v>
+      </c>
+      <c r="R21">
+        <v>1000</v>
+      </c>
+      <c r="S21">
+        <v>1000</v>
+      </c>
+      <c r="T21">
+        <v>0.04158546655656493</v>
+      </c>
+      <c r="U21">
+        <v>0.03900383007056746</v>
+      </c>
+      <c r="V21">
+        <v>0.07363632085608299</v>
+      </c>
+      <c r="W21">
+        <v>0.04237558571026932</v>
+      </c>
+      <c r="X21">
+        <v>0.05571975724366786</v>
+      </c>
+      <c r="Y21">
+        <v>0.01392993931091696</v>
+      </c>
+      <c r="Z21">
+        <v>0.01392993931091696</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22">
+        <v>13</v>
+      </c>
+      <c r="D22">
+        <v>20670</v>
+      </c>
+      <c r="E22">
+        <v>256.7295937723089</v>
+      </c>
+      <c r="F22" t="s">
+        <v>35</v>
+      </c>
+      <c r="G22">
+        <v>401</v>
+      </c>
+      <c r="H22">
+        <v>1126</v>
+      </c>
+      <c r="I22">
+        <v>1000</v>
+      </c>
+      <c r="J22">
+        <v>10</v>
+      </c>
+      <c r="K22">
+        <v>2567.295937723089</v>
+      </c>
+      <c r="L22">
+        <v>0.02011605430416439</v>
+      </c>
+      <c r="M22">
+        <v>0.06979368247144771</v>
+      </c>
+      <c r="N22">
+        <v>0.06982031241917054</v>
+      </c>
+      <c r="O22">
+        <v>0.06982031241917054</v>
+      </c>
+      <c r="P22">
+        <v>0.06982031241917054</v>
+      </c>
+      <c r="Q22">
+        <v>0.06982031241917054</v>
+      </c>
+      <c r="R22">
+        <v>0.06982031241917054</v>
+      </c>
+      <c r="S22">
+        <v>0.06984694084221267</v>
+      </c>
+      <c r="T22">
+        <v>0.03082970445691256</v>
+      </c>
+      <c r="U22">
+        <v>0.02765464931338578</v>
+      </c>
+      <c r="V22">
+        <v>0.0545066418762654</v>
+      </c>
+      <c r="W22">
+        <v>0.04498981922286753</v>
+      </c>
+      <c r="X22">
+        <v>0.03950664187626542</v>
+      </c>
+      <c r="Y22">
+        <v>0.009876660469066356</v>
+      </c>
+      <c r="Z22">
+        <v>0.009876660469066356</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23">
+        <v>6</v>
+      </c>
+      <c r="D23">
+        <v>13360</v>
+      </c>
+      <c r="E23">
+        <v>281.9742373962609</v>
+      </c>
+      <c r="F23" t="s">
+        <v>38</v>
+      </c>
+      <c r="G23">
+        <v>170</v>
+      </c>
+      <c r="H23">
+        <v>704</v>
+      </c>
+      <c r="I23">
+        <v>1000</v>
+      </c>
+      <c r="J23">
+        <v>9</v>
+      </c>
+      <c r="K23">
+        <v>2537.768136566348</v>
+      </c>
+      <c r="L23">
+        <v>1000</v>
+      </c>
+      <c r="M23">
+        <v>1000</v>
+      </c>
+      <c r="N23">
+        <v>1000</v>
+      </c>
+      <c r="O23">
+        <v>1000</v>
+      </c>
+      <c r="P23">
+        <v>1000</v>
+      </c>
+      <c r="Q23">
+        <v>1000</v>
+      </c>
+      <c r="R23">
+        <v>1000</v>
+      </c>
+      <c r="S23">
+        <v>1000</v>
+      </c>
+      <c r="T23">
+        <v>0.03268010081595641</v>
+      </c>
+      <c r="U23">
+        <v>0.03048005536109281</v>
+      </c>
+      <c r="V23">
+        <v>0.0477997883070877</v>
+      </c>
+      <c r="W23">
+        <v>0.03555751998618302</v>
+      </c>
+      <c r="X23">
+        <v>0.03279978830708776</v>
+      </c>
+      <c r="Y23">
+        <v>0.00819994707677194</v>
+      </c>
+      <c r="Z23">
+        <v>0.00819994707677194</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
         <v>27</v>
       </c>
-      <c r="C9">
+      <c r="C24">
+        <v>8</v>
+      </c>
+      <c r="D24">
+        <v>9620</v>
+      </c>
+      <c r="E24">
+        <v>361.9062944852018</v>
+      </c>
+      <c r="F24" t="s">
+        <v>36</v>
+      </c>
+      <c r="G24">
+        <v>8</v>
+      </c>
+      <c r="H24">
+        <v>703</v>
+      </c>
+      <c r="I24">
+        <v>1000</v>
+      </c>
+      <c r="J24">
+        <v>7</v>
+      </c>
+      <c r="K24">
+        <v>2533.344061396413</v>
+      </c>
+      <c r="L24">
+        <v>1000</v>
+      </c>
+      <c r="M24">
+        <v>1000</v>
+      </c>
+      <c r="N24">
+        <v>1000</v>
+      </c>
+      <c r="O24">
+        <v>1000</v>
+      </c>
+      <c r="P24">
+        <v>1000</v>
+      </c>
+      <c r="Q24">
+        <v>1000</v>
+      </c>
+      <c r="R24">
+        <v>1000</v>
+      </c>
+      <c r="S24">
+        <v>1000</v>
+      </c>
+      <c r="T24">
+        <v>0.05573569144478702</v>
+      </c>
+      <c r="U24">
+        <v>0.05230478343193697</v>
+      </c>
+      <c r="V24">
+        <v>0.07422345115865271</v>
+      </c>
+      <c r="W24">
+        <v>0.05602130793203916</v>
+      </c>
+      <c r="X24">
+        <v>0.06104681945021306</v>
+      </c>
+      <c r="Y24">
+        <v>0.01526170486255327</v>
+      </c>
+      <c r="Z24">
+        <v>0.01526170486255327</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>11859</v>
+      </c>
+      <c r="E25">
+        <v>280.99</v>
+      </c>
+      <c r="F25" t="s">
+        <v>35</v>
+      </c>
+      <c r="G25">
+        <v>632</v>
+      </c>
+      <c r="H25">
+        <v>1125</v>
+      </c>
+      <c r="I25">
+        <v>1000</v>
+      </c>
+      <c r="J25">
+        <v>9</v>
+      </c>
+      <c r="K25">
+        <v>2528.91</v>
+      </c>
+      <c r="L25">
+        <v>0.05310867733782642</v>
+      </c>
+      <c r="M25">
+        <v>0.02872450743173177</v>
+      </c>
+      <c r="N25">
+        <v>0.03106896551724135</v>
+      </c>
+      <c r="O25">
+        <v>0.03356835769561476</v>
+      </c>
+      <c r="P25">
+        <v>0.03572409059711726</v>
+      </c>
+      <c r="Q25">
+        <v>0.05006761325219743</v>
+      </c>
+      <c r="R25">
+        <v>0.08710201429499675</v>
+      </c>
+      <c r="S25">
+        <v>0.08917341977309559</v>
+      </c>
+      <c r="T25">
+        <v>0.04742726045883938</v>
+      </c>
+      <c r="U25">
+        <v>0.03016252395321769</v>
+      </c>
+      <c r="V25">
+        <v>0.05587367922500386</v>
+      </c>
+      <c r="W25">
+        <v>0.05030840726658195</v>
+      </c>
+      <c r="X25">
+        <v>0.03724911948333599</v>
+      </c>
+      <c r="Y25">
+        <v>0.009312279870833998</v>
+      </c>
+      <c r="Z25">
+        <v>0.009312279870833998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26">
+        <v>7</v>
+      </c>
+      <c r="D26">
+        <v>11931</v>
+      </c>
+      <c r="E26">
+        <v>176.967422014489</v>
+      </c>
+      <c r="F26" t="s">
+        <v>36</v>
+      </c>
+      <c r="G26">
+        <v>337</v>
+      </c>
+      <c r="H26">
+        <v>703</v>
+      </c>
+      <c r="I26">
+        <v>1000</v>
+      </c>
+      <c r="J26">
+        <v>14</v>
+      </c>
+      <c r="K26">
+        <v>2477.543908202846</v>
+      </c>
+      <c r="L26">
+        <v>0.1084764634030783</v>
+      </c>
+      <c r="M26">
+        <v>0.1150838892637283</v>
+      </c>
+      <c r="N26">
+        <v>0.1151628899275552</v>
+      </c>
+      <c r="O26">
+        <v>0.1151628899275552</v>
+      </c>
+      <c r="P26">
+        <v>0.1151628899275552</v>
+      </c>
+      <c r="Q26">
+        <v>0.1151628899275552</v>
+      </c>
+      <c r="R26">
+        <v>0.1151628899275552</v>
+      </c>
+      <c r="S26">
+        <v>0.1152418764871123</v>
+      </c>
+      <c r="T26">
+        <v>0.1011668138606308</v>
+      </c>
+      <c r="U26">
+        <v>0.07933827132113805</v>
+      </c>
+      <c r="V26">
+        <v>0.1307947979158018</v>
+      </c>
+      <c r="W26">
+        <v>0.1066801316985177</v>
+      </c>
+      <c r="X26">
+        <v>0.08927474917493747</v>
+      </c>
+      <c r="Y26">
+        <v>0.02231868729373437</v>
+      </c>
+      <c r="Z26">
+        <v>0.02231868729373437</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>13</v>
+      </c>
+      <c r="D27">
+        <v>13180</v>
+      </c>
+      <c r="E27">
+        <v>127.9204801924919</v>
+      </c>
+      <c r="F27" t="s">
+        <v>34</v>
+      </c>
+      <c r="G27">
+        <v>797</v>
+      </c>
+      <c r="H27">
+        <v>702</v>
+      </c>
+      <c r="I27">
+        <v>1000</v>
+      </c>
+      <c r="J27">
+        <v>19</v>
+      </c>
+      <c r="K27">
+        <v>2430.489123657347</v>
+      </c>
+      <c r="L27">
+        <v>0.06456687244978485</v>
+      </c>
+      <c r="M27">
+        <v>0.06397649774426528</v>
+      </c>
+      <c r="N27">
+        <v>0.06504545978298547</v>
+      </c>
+      <c r="O27">
+        <v>0.06611198304456516</v>
+      </c>
+      <c r="P27">
+        <v>0.06717607586539523</v>
+      </c>
+      <c r="Q27">
+        <v>0.06823774654391557</v>
+      </c>
+      <c r="R27">
+        <v>0.06929700334083028</v>
+      </c>
+      <c r="S27">
+        <v>0.07035385447932163</v>
+      </c>
+      <c r="T27">
+        <v>0.09213620612678328</v>
+      </c>
+      <c r="U27">
+        <v>0.07777304326926998</v>
+      </c>
+      <c r="V27">
+        <v>0.1068375331615687</v>
+      </c>
+      <c r="W27">
+        <v>0.0936550707820252</v>
+      </c>
+      <c r="X27">
+        <v>0.09081396898829847</v>
+      </c>
+      <c r="Y27">
+        <v>0.02270349224707462</v>
+      </c>
+      <c r="Z27">
+        <v>0.02270349224707462</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28">
+        <v>8</v>
+      </c>
+      <c r="D28">
+        <v>23125</v>
+      </c>
+      <c r="E28">
+        <v>290.16</v>
+      </c>
+      <c r="F28" t="s">
+        <v>34</v>
+      </c>
+      <c r="G28">
+        <v>797</v>
+      </c>
+      <c r="H28">
+        <v>702</v>
+      </c>
+      <c r="I28">
+        <v>1000</v>
+      </c>
+      <c r="J28">
+        <v>8</v>
+      </c>
+      <c r="K28">
+        <v>2321.28</v>
+      </c>
+      <c r="L28">
+        <v>1000</v>
+      </c>
+      <c r="M28">
+        <v>1000</v>
+      </c>
+      <c r="N28">
+        <v>1000</v>
+      </c>
+      <c r="O28">
+        <v>1000</v>
+      </c>
+      <c r="P28">
+        <v>1000</v>
+      </c>
+      <c r="Q28">
+        <v>1000</v>
+      </c>
+      <c r="R28">
+        <v>1000</v>
+      </c>
+      <c r="S28">
+        <v>1000</v>
+      </c>
+      <c r="T28">
+        <v>0.06775903614457841</v>
+      </c>
+      <c r="U28">
+        <v>0.0479048141277589</v>
+      </c>
+      <c r="V28">
+        <v>0.0823996213186021</v>
+      </c>
+      <c r="W28">
+        <v>0.06775903614457841</v>
+      </c>
+      <c r="X28">
+        <v>0.05571975724366786</v>
+      </c>
+      <c r="Y28">
+        <v>0.01392993931091696</v>
+      </c>
+      <c r="Z28">
+        <v>0.01392993931091696</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29">
+        <v>10</v>
+      </c>
+      <c r="D29">
+        <v>13009</v>
+      </c>
+      <c r="E29">
+        <v>230.4672372393667</v>
+      </c>
+      <c r="F29" t="s">
+        <v>34</v>
+      </c>
+      <c r="G29">
+        <v>797</v>
+      </c>
+      <c r="H29">
+        <v>702</v>
+      </c>
+      <c r="I29">
+        <v>1000</v>
+      </c>
+      <c r="J29">
+        <v>10</v>
+      </c>
+      <c r="K29">
+        <v>2304.672372393668</v>
+      </c>
+      <c r="L29">
+        <v>1000</v>
+      </c>
+      <c r="M29">
+        <v>1000</v>
+      </c>
+      <c r="N29">
+        <v>1000</v>
+      </c>
+      <c r="O29">
+        <v>1000</v>
+      </c>
+      <c r="P29">
+        <v>1000</v>
+      </c>
+      <c r="Q29">
+        <v>1000</v>
+      </c>
+      <c r="R29">
+        <v>1000</v>
+      </c>
+      <c r="S29">
+        <v>1000</v>
+      </c>
+      <c r="T29">
+        <v>0.1154028253495913</v>
+      </c>
+      <c r="U29">
+        <v>0.0482843550897316</v>
+      </c>
+      <c r="V29">
+        <v>0.0825021819961491</v>
+      </c>
+      <c r="W29">
+        <v>0.1154028253495913</v>
+      </c>
+      <c r="X29">
+        <v>0.05500145466409941</v>
+      </c>
+      <c r="Y29">
+        <v>0.01375036366602485</v>
+      </c>
+      <c r="Z29">
+        <v>0.01375036366602485</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>27</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>12025</v>
+      </c>
+      <c r="E30">
+        <v>93.84</v>
+      </c>
+      <c r="F30" t="s">
+        <v>36</v>
+      </c>
+      <c r="G30">
+        <v>8</v>
+      </c>
+      <c r="H30">
+        <v>703</v>
+      </c>
+      <c r="I30">
+        <v>1000</v>
+      </c>
+      <c r="J30">
+        <v>24</v>
+      </c>
+      <c r="K30">
+        <v>2252.16</v>
+      </c>
+      <c r="L30">
+        <v>0.0933333333333333</v>
+      </c>
+      <c r="M30">
+        <v>0.06326330295105823</v>
+      </c>
+      <c r="N30">
+        <v>0.07440261007531362</v>
+      </c>
+      <c r="O30">
+        <v>0.0878170650017584</v>
+      </c>
+      <c r="P30">
+        <v>0.1008482497874476</v>
+      </c>
+      <c r="Q30">
+        <v>0.1062857142857142</v>
+      </c>
+      <c r="R30">
+        <v>0.1229906542056074</v>
+      </c>
+      <c r="S30">
+        <v>0.1327621481910084</v>
+      </c>
+      <c r="T30">
+        <v>0.1027906542056074</v>
+      </c>
+      <c r="U30">
+        <v>0.07614963149695618</v>
+      </c>
+      <c r="V30">
+        <v>0.1292511025925957</v>
+      </c>
+      <c r="W30">
+        <v>0.08671532846715325</v>
+      </c>
+      <c r="X30">
+        <v>0.09881791201777561</v>
+      </c>
+      <c r="Y30">
+        <v>0.0247044780044439</v>
+      </c>
+      <c r="Z30">
+        <v>0.0247044780044439</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>27</v>
+      </c>
+      <c r="C31">
+        <v>4</v>
+      </c>
+      <c r="D31">
+        <v>11931</v>
+      </c>
+      <c r="E31">
+        <v>176.967422014489</v>
+      </c>
+      <c r="F31" t="s">
+        <v>36</v>
+      </c>
+      <c r="G31">
+        <v>8</v>
+      </c>
+      <c r="H31">
+        <v>703</v>
+      </c>
+      <c r="I31">
+        <v>1000</v>
+      </c>
+      <c r="J31">
+        <v>12</v>
+      </c>
+      <c r="K31">
+        <v>2123.609064173867</v>
+      </c>
+      <c r="L31">
+        <v>0.1084764634030783</v>
+      </c>
+      <c r="M31">
+        <v>0.1150838892637283</v>
+      </c>
+      <c r="N31">
+        <v>0.1151628899275552</v>
+      </c>
+      <c r="O31">
+        <v>0.1151628899275552</v>
+      </c>
+      <c r="P31">
+        <v>0.1151628899275552</v>
+      </c>
+      <c r="Q31">
+        <v>0.1151628899275552</v>
+      </c>
+      <c r="R31">
+        <v>0.1151628899275552</v>
+      </c>
+      <c r="S31">
+        <v>0.1152418764871123</v>
+      </c>
+      <c r="T31">
+        <v>0.1011668138606308</v>
+      </c>
+      <c r="U31">
+        <v>0.07933827132113805</v>
+      </c>
+      <c r="V31">
+        <v>0.1307947979158018</v>
+      </c>
+      <c r="W31">
+        <v>0.1066801316985177</v>
+      </c>
+      <c r="X31">
+        <v>0.08927474917493747</v>
+      </c>
+      <c r="Y31">
+        <v>0.02231868729373437</v>
+      </c>
+      <c r="Z31">
+        <v>0.02231868729373437</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32">
+        <v>28</v>
+      </c>
+      <c r="D32">
+        <v>8638</v>
+      </c>
+      <c r="E32">
+        <v>74.81360089955112</v>
+      </c>
+      <c r="F32" t="s">
+        <v>36</v>
+      </c>
+      <c r="G32">
+        <v>337</v>
+      </c>
+      <c r="H32">
+        <v>703</v>
+      </c>
+      <c r="I32">
+        <v>1000</v>
+      </c>
+      <c r="J32">
+        <v>28</v>
+      </c>
+      <c r="K32">
+        <v>2094.780825187431</v>
+      </c>
+      <c r="L32">
+        <v>1000</v>
+      </c>
+      <c r="M32">
+        <v>1000</v>
+      </c>
+      <c r="N32">
+        <v>1000</v>
+      </c>
+      <c r="O32">
+        <v>1000</v>
+      </c>
+      <c r="P32">
+        <v>1000</v>
+      </c>
+      <c r="Q32">
+        <v>1000</v>
+      </c>
+      <c r="R32">
+        <v>1000</v>
+      </c>
+      <c r="S32">
+        <v>1000</v>
+      </c>
+      <c r="T32">
+        <v>0.06470012322197413</v>
+      </c>
+      <c r="U32">
+        <v>0.07362601440576738</v>
+      </c>
+      <c r="V32">
+        <v>0.1544288813195608</v>
+      </c>
+      <c r="W32">
+        <v>0.07400193780176068</v>
+      </c>
+      <c r="X32">
+        <v>0.1051800205796677</v>
+      </c>
+      <c r="Y32">
+        <v>0.02629500514491693</v>
+      </c>
+      <c r="Z32">
+        <v>0.02629500514491693</v>
+      </c>
+    </row>
+    <row r="33" spans="1:26">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33">
+        <v>49</v>
+      </c>
+      <c r="D33">
+        <v>8166</v>
+      </c>
+      <c r="E33">
+        <v>46.02177278574523</v>
+      </c>
+      <c r="F33" t="s">
+        <v>35</v>
+      </c>
+      <c r="G33">
+        <v>401</v>
+      </c>
+      <c r="H33">
+        <v>1126</v>
+      </c>
+      <c r="I33">
+        <v>1000</v>
+      </c>
+      <c r="J33">
+        <v>45</v>
+      </c>
+      <c r="K33">
+        <v>2070.979775358535</v>
+      </c>
+      <c r="L33">
+        <v>1000</v>
+      </c>
+      <c r="M33">
+        <v>1000</v>
+      </c>
+      <c r="N33">
+        <v>1000</v>
+      </c>
+      <c r="O33">
+        <v>1000</v>
+      </c>
+      <c r="P33">
+        <v>1000</v>
+      </c>
+      <c r="Q33">
+        <v>1000</v>
+      </c>
+      <c r="R33">
+        <v>1000</v>
+      </c>
+      <c r="S33">
+        <v>1000</v>
+      </c>
+      <c r="T33">
+        <v>0.0947888611538923</v>
+      </c>
+      <c r="U33">
+        <v>0.05462278783007232</v>
+      </c>
+      <c r="V33">
+        <v>0.1066679330659165</v>
+      </c>
+      <c r="W33">
+        <v>0.09036653312430389</v>
+      </c>
+      <c r="X33">
+        <v>0.07111195537727778</v>
+      </c>
+      <c r="Y33">
+        <v>0.01777798884431945</v>
+      </c>
+      <c r="Z33">
+        <v>0.01777798884431945</v>
+      </c>
+    </row>
+    <row r="34" spans="1:26">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34">
+        <v>33</v>
+      </c>
+      <c r="D34">
+        <v>2262</v>
+      </c>
+      <c r="E34">
+        <v>61.81575550886791</v>
+      </c>
+      <c r="F34" t="s">
+        <v>36</v>
+      </c>
+      <c r="G34">
+        <v>337</v>
+      </c>
+      <c r="H34">
+        <v>703</v>
+      </c>
+      <c r="I34">
+        <v>1000</v>
+      </c>
+      <c r="J34">
+        <v>33</v>
+      </c>
+      <c r="K34">
+        <v>2039.919931792641</v>
+      </c>
+      <c r="L34">
+        <v>1000</v>
+      </c>
+      <c r="M34">
+        <v>1000</v>
+      </c>
+      <c r="N34">
+        <v>1000</v>
+      </c>
+      <c r="O34">
+        <v>1000</v>
+      </c>
+      <c r="P34">
+        <v>1000</v>
+      </c>
+      <c r="Q34">
+        <v>1000</v>
+      </c>
+      <c r="R34">
+        <v>1000</v>
+      </c>
+      <c r="S34">
+        <v>1000</v>
+      </c>
+      <c r="T34">
+        <v>0.07345553036833107</v>
+      </c>
+      <c r="U34">
+        <v>0.04088277919675271</v>
+      </c>
+      <c r="V34">
+        <v>0.0769609906680495</v>
+      </c>
+      <c r="W34">
+        <v>0.06796004750053693</v>
+      </c>
+      <c r="X34">
+        <v>0.05130732711203304</v>
+      </c>
+      <c r="Y34">
+        <v>0.01282683177800826</v>
+      </c>
+      <c r="Z34">
+        <v>0.01282683177800826</v>
+      </c>
+    </row>
+    <row r="35" spans="1:26">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>25</v>
+      </c>
+      <c r="C35">
+        <v>12</v>
+      </c>
+      <c r="D35">
+        <v>12887</v>
+      </c>
+      <c r="E35">
+        <v>77.59723339552239</v>
+      </c>
+      <c r="F35" t="s">
+        <v>34</v>
+      </c>
+      <c r="G35">
+        <v>797</v>
+      </c>
+      <c r="H35">
+        <v>702</v>
+      </c>
+      <c r="I35">
+        <v>1000</v>
+      </c>
+      <c r="J35">
+        <v>26</v>
+      </c>
+      <c r="K35">
+        <v>2017.528068283582</v>
+      </c>
+      <c r="L35">
+        <v>0.09507599538749394</v>
+      </c>
+      <c r="M35">
+        <v>0.06471795827011965</v>
+      </c>
+      <c r="N35">
+        <v>0.07180342828322488</v>
+      </c>
+      <c r="O35">
+        <v>0.0751223671570633</v>
+      </c>
+      <c r="P35">
+        <v>0.0816895456151196</v>
+      </c>
+      <c r="Q35">
+        <v>0.09243001876581995</v>
+      </c>
+      <c r="R35">
+        <v>0.108077777062961</v>
+      </c>
+      <c r="S35">
+        <v>0.1145237725881812</v>
+      </c>
+      <c r="T35">
+        <v>0.08377523399894442</v>
+      </c>
+      <c r="U35">
+        <v>0.06701335386508069</v>
+      </c>
+      <c r="V35">
+        <v>0.1047929003804478</v>
+      </c>
+      <c r="W35">
+        <v>0.08321098144359426</v>
+      </c>
+      <c r="X35">
+        <v>0.08640153885666363</v>
+      </c>
+      <c r="Y35">
+        <v>0.02160038471416591</v>
+      </c>
+      <c r="Z35">
+        <v>0.02160038471416591</v>
+      </c>
+    </row>
+    <row r="36" spans="1:26">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>33</v>
+      </c>
+      <c r="C36">
+        <v>2</v>
+      </c>
+      <c r="D36">
+        <v>13403</v>
+      </c>
+      <c r="E36">
+        <v>196.6804156564907</v>
+      </c>
+      <c r="F36" t="s">
+        <v>35</v>
+      </c>
+      <c r="G36">
+        <v>632</v>
+      </c>
+      <c r="H36">
+        <v>1125</v>
+      </c>
+      <c r="I36">
+        <v>1000</v>
+      </c>
+      <c r="J36">
+        <v>10</v>
+      </c>
+      <c r="K36">
+        <v>1966.804156564907</v>
+      </c>
+      <c r="L36">
+        <v>1000</v>
+      </c>
+      <c r="M36">
+        <v>1000</v>
+      </c>
+      <c r="N36">
+        <v>1000</v>
+      </c>
+      <c r="O36">
+        <v>1000</v>
+      </c>
+      <c r="P36">
+        <v>1000</v>
+      </c>
+      <c r="Q36">
+        <v>1000</v>
+      </c>
+      <c r="R36">
+        <v>1000</v>
+      </c>
+      <c r="S36">
+        <v>1000</v>
+      </c>
+      <c r="T36">
+        <v>0.03113095735718848</v>
+      </c>
+      <c r="U36">
+        <v>0.02599242001048656</v>
+      </c>
+      <c r="V36">
+        <v>0.0467079281552364</v>
+      </c>
+      <c r="W36">
+        <v>0.03301013348130672</v>
+      </c>
+      <c r="X36">
+        <v>0.03170792815523641</v>
+      </c>
+      <c r="Y36">
+        <v>0.007926982038809103</v>
+      </c>
+      <c r="Z36">
+        <v>0.007926982038809103</v>
+      </c>
+    </row>
+    <row r="37" spans="1:26">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>28</v>
+      </c>
+      <c r="C37">
         <v>6</v>
       </c>
-      <c r="D9">
-        <v>11295</v>
-      </c>
-      <c r="E9">
-        <v>857.5395081987331</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="D37">
+        <v>13014</v>
+      </c>
+      <c r="E37">
+        <v>172.597534832978</v>
+      </c>
+      <c r="F37" t="s">
+        <v>37</v>
+      </c>
+      <c r="G37">
+        <v>236</v>
+      </c>
+      <c r="H37">
+        <v>701</v>
+      </c>
+      <c r="I37">
+        <v>1000</v>
+      </c>
+      <c r="J37">
+        <v>11</v>
+      </c>
+      <c r="K37">
+        <v>1898.572883162758</v>
+      </c>
+      <c r="L37">
+        <v>1000</v>
+      </c>
+      <c r="M37">
+        <v>1000</v>
+      </c>
+      <c r="N37">
+        <v>1000</v>
+      </c>
+      <c r="O37">
+        <v>1000</v>
+      </c>
+      <c r="P37">
+        <v>1000</v>
+      </c>
+      <c r="Q37">
+        <v>1000</v>
+      </c>
+      <c r="R37">
+        <v>1000</v>
+      </c>
+      <c r="S37">
+        <v>1000</v>
+      </c>
+      <c r="T37">
+        <v>0.03119307518860474</v>
+      </c>
+      <c r="U37">
+        <v>0.03850101826486958</v>
+      </c>
+      <c r="V37">
+        <v>0.0825021819961491</v>
+      </c>
+      <c r="W37">
+        <v>0.03460881291409774</v>
+      </c>
+      <c r="X37">
+        <v>0.05500145466409941</v>
+      </c>
+      <c r="Y37">
+        <v>0.01375036366602485</v>
+      </c>
+      <c r="Z37">
+        <v>0.01375036366602485</v>
+      </c>
+    </row>
+    <row r="38" spans="1:26">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>28</v>
+      </c>
+      <c r="C38">
+        <v>10</v>
+      </c>
+      <c r="D38">
+        <v>10384</v>
+      </c>
+      <c r="E38">
+        <v>156.1112002259644</v>
+      </c>
+      <c r="F38" t="s">
+        <v>37</v>
+      </c>
+      <c r="G38">
+        <v>236</v>
+      </c>
+      <c r="H38">
+        <v>701</v>
+      </c>
+      <c r="I38">
+        <v>1000</v>
+      </c>
+      <c r="J38">
+        <v>12</v>
+      </c>
+      <c r="K38">
+        <v>1873.334402711572</v>
+      </c>
+      <c r="L38">
+        <v>1000</v>
+      </c>
+      <c r="M38">
+        <v>1000</v>
+      </c>
+      <c r="N38">
+        <v>1000</v>
+      </c>
+      <c r="O38">
+        <v>1000</v>
+      </c>
+      <c r="P38">
+        <v>1000</v>
+      </c>
+      <c r="Q38">
+        <v>1000</v>
+      </c>
+      <c r="R38">
+        <v>1000</v>
+      </c>
+      <c r="S38">
+        <v>1000</v>
+      </c>
+      <c r="T38">
+        <v>0.03488063921959599</v>
+      </c>
+      <c r="U38">
+        <v>0.03232361608058078</v>
+      </c>
+      <c r="V38">
+        <v>0.0611765944008297</v>
+      </c>
+      <c r="W38">
+        <v>0.03562170452979854</v>
+      </c>
+      <c r="X38">
+        <v>0.04617659440082973</v>
+      </c>
+      <c r="Y38">
+        <v>0.01154414860020743</v>
+      </c>
+      <c r="Z38">
+        <v>0.01154414860020743</v>
+      </c>
+    </row>
+    <row r="39" spans="1:26">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>28</v>
+      </c>
+      <c r="C39">
+        <v>12</v>
+      </c>
+      <c r="D39">
+        <v>12857</v>
+      </c>
+      <c r="E39">
+        <v>46.56003331198207</v>
+      </c>
+      <c r="F39" t="s">
+        <v>37</v>
+      </c>
+      <c r="G39">
+        <v>236</v>
+      </c>
+      <c r="H39">
+        <v>701</v>
+      </c>
+      <c r="I39">
+        <v>1000</v>
+      </c>
+      <c r="J39">
+        <v>38</v>
+      </c>
+      <c r="K39">
+        <v>1769.281265855318</v>
+      </c>
+      <c r="L39">
+        <v>0.07801914233698876</v>
+      </c>
+      <c r="M39">
+        <v>0.103752968008045</v>
+      </c>
+      <c r="N39">
+        <v>0.1046147440003449</v>
+      </c>
+      <c r="O39">
+        <v>0.105474864323111</v>
+      </c>
+      <c r="P39">
+        <v>0.1063333337431465</v>
+      </c>
+      <c r="Q39">
+        <v>0.1071901570089729</v>
+      </c>
+      <c r="R39">
+        <v>0.1080453388509183</v>
+      </c>
+      <c r="S39">
+        <v>0.1088988839812045</v>
+      </c>
+      <c r="T39">
+        <v>0.07797631597447559</v>
+      </c>
+      <c r="U39">
+        <v>0.06944457555533388</v>
+      </c>
+      <c r="V39">
+        <v>0.1120138382035746</v>
+      </c>
+      <c r="W39">
+        <v>0.07971748003867871</v>
+      </c>
+      <c r="X39">
+        <v>0.08640153885666363</v>
+      </c>
+      <c r="Y39">
+        <v>0.02160038471416591</v>
+      </c>
+      <c r="Z39">
+        <v>0.02160038471416591</v>
+      </c>
+    </row>
+    <row r="40" spans="1:26">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>25</v>
+      </c>
+      <c r="C40">
+        <v>4</v>
+      </c>
+      <c r="D40">
+        <v>3737</v>
+      </c>
+      <c r="E40">
+        <v>437.6191875457874</v>
+      </c>
+      <c r="F40" t="s">
+        <v>34</v>
+      </c>
+      <c r="G40">
+        <v>797</v>
+      </c>
+      <c r="H40">
+        <v>702</v>
+      </c>
+      <c r="I40">
+        <v>1000</v>
+      </c>
+      <c r="J40">
+        <v>4</v>
+      </c>
+      <c r="K40">
+        <v>1750.47675018315</v>
+      </c>
+      <c r="L40">
+        <v>0.0392553511618278</v>
+      </c>
+      <c r="M40">
+        <v>0.0628936835706518</v>
+      </c>
+      <c r="N40">
+        <v>0.0629139452980997</v>
+      </c>
+      <c r="O40">
+        <v>0.0629139452980997</v>
+      </c>
+      <c r="P40">
+        <v>0.0629139452980997</v>
+      </c>
+      <c r="Q40">
+        <v>0.0629139452980997</v>
+      </c>
+      <c r="R40">
+        <v>0.0629139452980997</v>
+      </c>
+      <c r="S40">
+        <v>0.06293420614938507</v>
+      </c>
+      <c r="T40">
+        <v>0.03978236413431171</v>
+      </c>
+      <c r="U40">
+        <v>0.03515690019327087</v>
+      </c>
+      <c r="V40">
+        <v>0.0543203071963187</v>
+      </c>
+      <c r="W40">
+        <v>0.03978236413431171</v>
+      </c>
+      <c r="X40">
+        <v>0.0504864098782405</v>
+      </c>
+      <c r="Y40">
+        <v>0.01262160246956012</v>
+      </c>
+      <c r="Z40">
+        <v>0.01262160246956012</v>
+      </c>
+    </row>
+    <row r="41" spans="1:26">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>29</v>
+      </c>
+      <c r="C41">
+        <v>3</v>
+      </c>
+      <c r="D41">
+        <v>10582</v>
+      </c>
+      <c r="E41">
+        <v>69.7694354651555</v>
+      </c>
+      <c r="F41" t="s">
+        <v>38</v>
+      </c>
+      <c r="G41">
+        <v>170</v>
+      </c>
+      <c r="H41">
+        <v>704</v>
+      </c>
+      <c r="I41">
+        <v>1000</v>
+      </c>
+      <c r="J41">
+        <v>25</v>
+      </c>
+      <c r="K41">
+        <v>1744.235886628887</v>
+      </c>
+      <c r="L41">
+        <v>1000</v>
+      </c>
+      <c r="M41">
+        <v>1000</v>
+      </c>
+      <c r="N41">
+        <v>1000</v>
+      </c>
+      <c r="O41">
+        <v>1000</v>
+      </c>
+      <c r="P41">
+        <v>1000</v>
+      </c>
+      <c r="Q41">
+        <v>1000</v>
+      </c>
+      <c r="R41">
+        <v>1000</v>
+      </c>
+      <c r="S41">
+        <v>1000</v>
+      </c>
+      <c r="T41">
+        <v>0.07345152942247439</v>
+      </c>
+      <c r="U41">
+        <v>0.07362601440576738</v>
+      </c>
+      <c r="V41">
+        <v>0.142763909323827</v>
+      </c>
+      <c r="W41">
+        <v>0.07170889996208693</v>
+      </c>
+      <c r="X41">
+        <v>0.1051800205796677</v>
+      </c>
+      <c r="Y41">
+        <v>0.02629500514491693</v>
+      </c>
+      <c r="Z41">
+        <v>0.02629500514491693</v>
+      </c>
+    </row>
+    <row r="42" spans="1:26">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>29</v>
+      </c>
+      <c r="C42">
+        <v>2</v>
+      </c>
+      <c r="D42">
+        <v>12915</v>
+      </c>
+      <c r="E42">
+        <v>131.2076675984299</v>
+      </c>
+      <c r="F42" t="s">
+        <v>38</v>
+      </c>
+      <c r="G42">
+        <v>170</v>
+      </c>
+      <c r="H42">
+        <v>704</v>
+      </c>
+      <c r="I42">
+        <v>1000</v>
+      </c>
+      <c r="J42">
+        <v>13</v>
+      </c>
+      <c r="K42">
+        <v>1705.699678779589</v>
+      </c>
+      <c r="L42">
+        <v>1000</v>
+      </c>
+      <c r="M42">
+        <v>1000</v>
+      </c>
+      <c r="N42">
+        <v>1000</v>
+      </c>
+      <c r="O42">
+        <v>1000</v>
+      </c>
+      <c r="P42">
+        <v>1000</v>
+      </c>
+      <c r="Q42">
+        <v>1000</v>
+      </c>
+      <c r="R42">
+        <v>1000</v>
+      </c>
+      <c r="S42">
+        <v>1000</v>
+      </c>
+      <c r="T42">
+        <v>0.01900084602307413</v>
+      </c>
+      <c r="U42">
+        <v>0.02097443532339904</v>
+      </c>
+      <c r="V42">
+        <v>0.0449452185501408</v>
+      </c>
+      <c r="W42">
+        <v>0.02664996223342053</v>
+      </c>
+      <c r="X42">
+        <v>0.02996347903342729</v>
+      </c>
+      <c r="Y42">
+        <v>0.007490869758356823</v>
+      </c>
+      <c r="Z42">
+        <v>0.007490869758356823</v>
+      </c>
+    </row>
+    <row r="43" spans="1:26">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>30</v>
+      </c>
+      <c r="C43">
+        <v>44</v>
+      </c>
+      <c r="D43">
+        <v>2264</v>
+      </c>
+      <c r="E43">
+        <v>38.5845196739223</v>
+      </c>
+      <c r="F43" t="s">
+        <v>36</v>
+      </c>
+      <c r="G43">
+        <v>337</v>
+      </c>
+      <c r="H43">
+        <v>703</v>
+      </c>
+      <c r="I43">
+        <v>1000</v>
+      </c>
+      <c r="J43">
+        <v>44</v>
+      </c>
+      <c r="K43">
+        <v>1697.718865652581</v>
+      </c>
+      <c r="L43">
+        <v>1000</v>
+      </c>
+      <c r="M43">
+        <v>1000</v>
+      </c>
+      <c r="N43">
+        <v>1000</v>
+      </c>
+      <c r="O43">
+        <v>1000</v>
+      </c>
+      <c r="P43">
+        <v>1000</v>
+      </c>
+      <c r="Q43">
+        <v>1000</v>
+      </c>
+      <c r="R43">
+        <v>1000</v>
+      </c>
+      <c r="S43">
+        <v>1000</v>
+      </c>
+      <c r="T43">
+        <v>0.08367647489843083</v>
+      </c>
+      <c r="U43">
+        <v>0.04086538687191939</v>
+      </c>
+      <c r="V43">
+        <v>0.0769609906680495</v>
+      </c>
+      <c r="W43">
+        <v>0.08482701300348611</v>
+      </c>
+      <c r="X43">
+        <v>0.05130732711203304</v>
+      </c>
+      <c r="Y43">
+        <v>0.01282683177800826</v>
+      </c>
+      <c r="Z43">
+        <v>0.01282683177800826</v>
+      </c>
+    </row>
+    <row r="44" spans="1:26">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>27</v>
+      </c>
+      <c r="C44">
+        <v>11</v>
+      </c>
+      <c r="D44">
+        <v>8638</v>
+      </c>
+      <c r="E44">
+        <v>74.81360089955112</v>
+      </c>
+      <c r="F44" t="s">
+        <v>36</v>
+      </c>
+      <c r="G44">
+        <v>8</v>
+      </c>
+      <c r="H44">
+        <v>703</v>
+      </c>
+      <c r="I44">
+        <v>1000</v>
+      </c>
+      <c r="J44">
+        <v>22</v>
+      </c>
+      <c r="K44">
+        <v>1645.899219790125</v>
+      </c>
+      <c r="L44">
+        <v>1000</v>
+      </c>
+      <c r="M44">
+        <v>1000</v>
+      </c>
+      <c r="N44">
+        <v>1000</v>
+      </c>
+      <c r="O44">
+        <v>1000</v>
+      </c>
+      <c r="P44">
+        <v>1000</v>
+      </c>
+      <c r="Q44">
+        <v>1000</v>
+      </c>
+      <c r="R44">
+        <v>1000</v>
+      </c>
+      <c r="S44">
+        <v>1000</v>
+      </c>
+      <c r="T44">
+        <v>0.06470012322197413</v>
+      </c>
+      <c r="U44">
+        <v>0.07362601440576738</v>
+      </c>
+      <c r="V44">
+        <v>0.1544288813195608</v>
+      </c>
+      <c r="W44">
+        <v>0.07400193780176068</v>
+      </c>
+      <c r="X44">
+        <v>0.1051800205796677</v>
+      </c>
+      <c r="Y44">
+        <v>0.02629500514491693</v>
+      </c>
+      <c r="Z44">
+        <v>0.02629500514491693</v>
+      </c>
+    </row>
+    <row r="45" spans="1:26">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>29</v>
+      </c>
+      <c r="C45">
+        <v>12</v>
+      </c>
+      <c r="D45">
+        <v>13005</v>
+      </c>
+      <c r="E45">
+        <v>158.7751111111111</v>
+      </c>
+      <c r="F45" t="s">
+        <v>38</v>
+      </c>
+      <c r="G45">
+        <v>170</v>
+      </c>
+      <c r="H45">
+        <v>704</v>
+      </c>
+      <c r="I45">
+        <v>1000</v>
+      </c>
+      <c r="J45">
+        <v>10</v>
+      </c>
+      <c r="K45">
+        <v>1587.751111111111</v>
+      </c>
+      <c r="L45">
+        <v>1000</v>
+      </c>
+      <c r="M45">
+        <v>1000</v>
+      </c>
+      <c r="N45">
+        <v>1000</v>
+      </c>
+      <c r="O45">
+        <v>1000</v>
+      </c>
+      <c r="P45">
+        <v>1000</v>
+      </c>
+      <c r="Q45">
+        <v>1000</v>
+      </c>
+      <c r="R45">
+        <v>1000</v>
+      </c>
+      <c r="S45">
+        <v>1000</v>
+      </c>
+      <c r="T45">
+        <v>0.02889840299014599</v>
+      </c>
+      <c r="U45">
+        <v>0.02430869359155075</v>
+      </c>
+      <c r="V45">
+        <v>0.04417560864346035</v>
+      </c>
+      <c r="W45">
+        <v>0.02889840299014599</v>
+      </c>
+      <c r="X45">
+        <v>0.02945040576230695</v>
+      </c>
+      <c r="Y45">
+        <v>0.007362601440576738</v>
+      </c>
+      <c r="Z45">
+        <v>0.007362601440576738</v>
+      </c>
+    </row>
+    <row r="46" spans="1:26">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>29</v>
+      </c>
+      <c r="C46">
+        <v>27</v>
+      </c>
+      <c r="D46">
+        <v>1064</v>
+      </c>
+      <c r="E46">
+        <v>75.12225591891203</v>
+      </c>
+      <c r="F46" t="s">
+        <v>38</v>
+      </c>
+      <c r="G46">
+        <v>170</v>
+      </c>
+      <c r="H46">
+        <v>704</v>
+      </c>
+      <c r="I46">
+        <v>1000</v>
+      </c>
+      <c r="J46">
+        <v>21</v>
+      </c>
+      <c r="K46">
+        <v>1577.567374297153</v>
+      </c>
+      <c r="L46">
+        <v>0.02754361270016787</v>
+      </c>
+      <c r="M46">
+        <v>0.06084531403231005</v>
+      </c>
+      <c r="N46">
+        <v>0.0609718010135996</v>
+      </c>
+      <c r="O46">
+        <v>0.0609718010135996</v>
+      </c>
+      <c r="P46">
+        <v>0.0609718010135996</v>
+      </c>
+      <c r="Q46">
+        <v>0.0609718010135996</v>
+      </c>
+      <c r="R46">
+        <v>0.0609718010135996</v>
+      </c>
+      <c r="S46">
+        <v>0.06109825392850542</v>
+      </c>
+      <c r="T46">
+        <v>0.05548191784951757</v>
+      </c>
+      <c r="U46">
+        <v>0.04378236998440729</v>
+      </c>
+      <c r="V46">
+        <v>0.0688726934676346</v>
+      </c>
+      <c r="W46">
+        <v>0.05379905756458226</v>
+      </c>
+      <c r="X46">
+        <v>0.05387269346763468</v>
+      </c>
+      <c r="Y46">
+        <v>0.01346817336690867</v>
+      </c>
+      <c r="Z46">
+        <v>0.01346817336690867</v>
+      </c>
+    </row>
+    <row r="47" spans="1:26">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>28</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="D47">
+        <v>9353</v>
+      </c>
+      <c r="E47">
+        <v>15.6</v>
+      </c>
+      <c r="F47" t="s">
+        <v>37</v>
+      </c>
+      <c r="G47">
+        <v>236</v>
+      </c>
+      <c r="H47">
+        <v>701</v>
+      </c>
+      <c r="I47">
+        <v>1000</v>
+      </c>
+      <c r="J47">
+        <v>101</v>
+      </c>
+      <c r="K47">
+        <v>1575.6</v>
+      </c>
+      <c r="L47">
+        <v>0.00952380952380966</v>
+      </c>
+      <c r="M47">
+        <v>0.07491130198026864</v>
+      </c>
+      <c r="N47">
+        <v>0.0752815649081211</v>
+      </c>
+      <c r="O47">
+        <v>0.0752815649081211</v>
+      </c>
+      <c r="P47">
+        <v>0.0752815649081211</v>
+      </c>
+      <c r="Q47">
+        <v>0.0752815649081211</v>
+      </c>
+      <c r="R47">
+        <v>0.0752815649081211</v>
+      </c>
+      <c r="S47">
+        <v>0.0756515315621429</v>
+      </c>
+      <c r="T47">
+        <v>0.04000000000000017</v>
+      </c>
+      <c r="U47">
+        <v>0.02779006197643735</v>
+      </c>
+      <c r="V47">
+        <v>0.0506411083032519</v>
+      </c>
+      <c r="W47">
+        <v>0.04000000000000017</v>
+      </c>
+      <c r="X47">
+        <v>0.03376073886883463</v>
+      </c>
+      <c r="Y47">
+        <v>0.008440184717208657</v>
+      </c>
+      <c r="Z47">
+        <v>0.008440184717208657</v>
+      </c>
+    </row>
+    <row r="48" spans="1:26">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>28</v>
+      </c>
+      <c r="C48">
+        <v>3</v>
+      </c>
+      <c r="D48">
+        <v>10667</v>
+      </c>
+      <c r="E48">
+        <v>92.54023609169171</v>
+      </c>
+      <c r="F48" t="s">
+        <v>37</v>
+      </c>
+      <c r="G48">
+        <v>236</v>
+      </c>
+      <c r="H48">
+        <v>701</v>
+      </c>
+      <c r="I48">
+        <v>1000</v>
+      </c>
+      <c r="J48">
+        <v>17</v>
+      </c>
+      <c r="K48">
+        <v>1573.184013558759</v>
+      </c>
+      <c r="L48">
+        <v>1000</v>
+      </c>
+      <c r="M48">
+        <v>1000</v>
+      </c>
+      <c r="N48">
+        <v>1000</v>
+      </c>
+      <c r="O48">
+        <v>1000</v>
+      </c>
+      <c r="P48">
+        <v>1000</v>
+      </c>
+      <c r="Q48">
+        <v>1000</v>
+      </c>
+      <c r="R48">
+        <v>1000</v>
+      </c>
+      <c r="S48">
+        <v>1000</v>
+      </c>
+      <c r="T48">
+        <v>0.0471097866218915</v>
+      </c>
+      <c r="U48">
+        <v>0.04381645735367614</v>
+      </c>
+      <c r="V48">
+        <v>0.07993933798528424</v>
+      </c>
+      <c r="W48">
+        <v>0.0471097866218915</v>
+      </c>
+      <c r="X48">
+        <v>0.06259493907668029</v>
+      </c>
+      <c r="Y48">
+        <v>0.01564873476917007</v>
+      </c>
+      <c r="Z48">
+        <v>0.01564873476917007</v>
+      </c>
+    </row>
+    <row r="49" spans="1:26">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>30</v>
+      </c>
+      <c r="C49">
+        <v>3</v>
+      </c>
+      <c r="D49">
+        <v>12596</v>
+      </c>
+      <c r="E49">
+        <v>516.0710075952297</v>
+      </c>
+      <c r="F49" t="s">
+        <v>36</v>
+      </c>
+      <c r="G49">
+        <v>337</v>
+      </c>
+      <c r="H49">
+        <v>703</v>
+      </c>
+      <c r="I49">
+        <v>1000</v>
+      </c>
+      <c r="J49">
+        <v>3</v>
+      </c>
+      <c r="K49">
+        <v>1548.213022785689</v>
+      </c>
+      <c r="L49">
+        <v>1000</v>
+      </c>
+      <c r="M49">
+        <v>1000</v>
+      </c>
+      <c r="N49">
+        <v>1000</v>
+      </c>
+      <c r="O49">
+        <v>1000</v>
+      </c>
+      <c r="P49">
+        <v>1000</v>
+      </c>
+      <c r="Q49">
+        <v>1000</v>
+      </c>
+      <c r="R49">
+        <v>1000</v>
+      </c>
+      <c r="S49">
+        <v>1000</v>
+      </c>
+      <c r="T49">
+        <v>0.03266915164905393</v>
+      </c>
+      <c r="U49">
+        <v>0.02731006482701386</v>
+      </c>
+      <c r="V49">
+        <v>0.0519412755206637</v>
+      </c>
+      <c r="W49">
+        <v>0.03266915164905393</v>
+      </c>
+      <c r="X49">
+        <v>0.03694127552066378</v>
+      </c>
+      <c r="Y49">
+        <v>0.009235318880165945</v>
+      </c>
+      <c r="Z49">
+        <v>0.009235318880165945</v>
+      </c>
+    </row>
+    <row r="50" spans="1:26">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>31</v>
+      </c>
+      <c r="C50">
+        <v>26</v>
+      </c>
+      <c r="D50">
+        <v>12031</v>
+      </c>
+      <c r="E50">
+        <v>96.60076185929056</v>
+      </c>
+      <c r="F50" t="s">
+        <v>35</v>
+      </c>
+      <c r="G50">
+        <v>401</v>
+      </c>
+      <c r="H50">
+        <v>1126</v>
+      </c>
+      <c r="I50">
+        <v>1000</v>
+      </c>
+      <c r="J50">
+        <v>16</v>
+      </c>
+      <c r="K50">
+        <v>1545.612189748649</v>
+      </c>
+      <c r="L50">
+        <v>0.0929505928705112</v>
+      </c>
+      <c r="M50">
+        <v>0.07337398696124166</v>
+      </c>
+      <c r="N50">
+        <v>0.07999274419723279</v>
+      </c>
+      <c r="O50">
+        <v>0.08651761835186235</v>
+      </c>
+      <c r="P50">
+        <v>0.0929505928705112</v>
+      </c>
+      <c r="Q50">
+        <v>0.09929359571757056</v>
+      </c>
+      <c r="R50">
+        <v>0.1055485013028652</v>
+      </c>
+      <c r="S50">
+        <v>0.1117171323283627</v>
+      </c>
+      <c r="T50">
+        <v>0.08434973760075794</v>
+      </c>
+      <c r="U50">
+        <v>0.07039833711524966</v>
+      </c>
+      <c r="V50">
+        <v>0.1302209114810348</v>
+      </c>
+      <c r="W50">
+        <v>0.08834527489825936</v>
+      </c>
+      <c r="X50">
+        <v>0.09881791201777561</v>
+      </c>
+      <c r="Y50">
+        <v>0.0247044780044439</v>
+      </c>
+      <c r="Z50">
+        <v>0.0247044780044439</v>
+      </c>
+    </row>
+    <row r="51" spans="1:26">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>29</v>
+      </c>
+      <c r="C51">
+        <v>6</v>
+      </c>
+      <c r="D51">
+        <v>7551</v>
+      </c>
+      <c r="E51">
+        <v>300.7197762962056</v>
+      </c>
+      <c r="F51" t="s">
+        <v>38</v>
+      </c>
+      <c r="G51">
+        <v>170</v>
+      </c>
+      <c r="H51">
+        <v>704</v>
+      </c>
+      <c r="I51">
+        <v>1000</v>
+      </c>
+      <c r="J51">
+        <v>5</v>
+      </c>
+      <c r="K51">
+        <v>1503.598881481028</v>
+      </c>
+      <c r="L51">
+        <v>1000</v>
+      </c>
+      <c r="M51">
+        <v>1000</v>
+      </c>
+      <c r="N51">
+        <v>1000</v>
+      </c>
+      <c r="O51">
+        <v>1000</v>
+      </c>
+      <c r="P51">
+        <v>1000</v>
+      </c>
+      <c r="Q51">
+        <v>1000</v>
+      </c>
+      <c r="R51">
+        <v>1000</v>
+      </c>
+      <c r="S51">
+        <v>1000</v>
+      </c>
+      <c r="T51">
+        <v>0.06463522147369964</v>
+      </c>
+      <c r="U51">
+        <v>0.05437951021096449</v>
+      </c>
+      <c r="V51">
+        <v>0.0785940758629223</v>
+      </c>
+      <c r="W51">
+        <v>0.0625771369219869</v>
+      </c>
+      <c r="X51">
+        <v>0.06359407586292237</v>
+      </c>
+      <c r="Y51">
+        <v>0.01589851896573059</v>
+      </c>
+      <c r="Z51">
+        <v>0.01589851896573059</v>
+      </c>
+    </row>
+    <row r="52" spans="1:26">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>29</v>
+      </c>
+      <c r="C52">
+        <v>37</v>
+      </c>
+      <c r="D52">
+        <v>2270</v>
+      </c>
+      <c r="E52">
+        <v>40.25321011918424</v>
+      </c>
+      <c r="F52" t="s">
+        <v>38</v>
+      </c>
+      <c r="G52">
+        <v>170</v>
+      </c>
+      <c r="H52">
+        <v>704</v>
+      </c>
+      <c r="I52">
+        <v>1000</v>
+      </c>
+      <c r="J52">
+        <v>37</v>
+      </c>
+      <c r="K52">
+        <v>1489.368774409817</v>
+      </c>
+      <c r="L52">
+        <v>1000</v>
+      </c>
+      <c r="M52">
+        <v>1000</v>
+      </c>
+      <c r="N52">
+        <v>1000</v>
+      </c>
+      <c r="O52">
+        <v>1000</v>
+      </c>
+      <c r="P52">
+        <v>1000</v>
+      </c>
+      <c r="Q52">
+        <v>1000</v>
+      </c>
+      <c r="R52">
+        <v>1000</v>
+      </c>
+      <c r="S52">
+        <v>1000</v>
+      </c>
+      <c r="T52">
+        <v>0.05493589855053924</v>
+      </c>
+      <c r="U52">
+        <v>0.04797672266236158</v>
+      </c>
+      <c r="V52">
+        <v>0.06934910830269909</v>
+      </c>
+      <c r="W52">
+        <v>0.05279516264798238</v>
+      </c>
+      <c r="X52">
+        <v>0.05130732711203304</v>
+      </c>
+      <c r="Y52">
+        <v>0.01282683177800826</v>
+      </c>
+      <c r="Z52">
+        <v>0.01282683177800826</v>
+      </c>
+    </row>
+    <row r="53" spans="1:26">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53" t="s">
+        <v>25</v>
+      </c>
+      <c r="C53">
+        <v>12</v>
+      </c>
+      <c r="D53">
+        <v>13177</v>
+      </c>
+      <c r="E53">
+        <v>86.94882662462346</v>
+      </c>
+      <c r="F53" t="s">
+        <v>34</v>
+      </c>
+      <c r="G53">
+        <v>797</v>
+      </c>
+      <c r="H53">
+        <v>702</v>
+      </c>
+      <c r="I53">
+        <v>1000</v>
+      </c>
+      <c r="J53">
+        <v>17</v>
+      </c>
+      <c r="K53">
+        <v>1478.130052618599</v>
+      </c>
+      <c r="L53">
+        <v>0.06001268513920579</v>
+      </c>
+      <c r="M53">
+        <v>0.07295740222076806</v>
+      </c>
+      <c r="N53">
+        <v>0.07313688972331768</v>
+      </c>
+      <c r="O53">
+        <v>0.07313688972331768</v>
+      </c>
+      <c r="P53">
+        <v>0.07313688972331768</v>
+      </c>
+      <c r="Q53">
+        <v>0.07313688972331768</v>
+      </c>
+      <c r="R53">
+        <v>0.07313688972331768</v>
+      </c>
+      <c r="S53">
+        <v>0.07331630773709201</v>
+      </c>
+      <c r="T53">
+        <v>0.08491250341496737</v>
+      </c>
+      <c r="U53">
+        <v>0.07882023476408644</v>
+      </c>
+      <c r="V53">
+        <v>0.1151586384251166</v>
+      </c>
+      <c r="W53">
+        <v>0.08409642566921346</v>
+      </c>
+      <c r="X53">
+        <v>0.09081396898829847</v>
+      </c>
+      <c r="Y53">
+        <v>0.02270349224707462</v>
+      </c>
+      <c r="Z53">
+        <v>0.02270349224707462</v>
+      </c>
+    </row>
+    <row r="54" spans="1:26">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54" t="s">
+        <v>28</v>
+      </c>
+      <c r="C54">
+        <v>6</v>
+      </c>
+      <c r="D54">
+        <v>23125</v>
+      </c>
+      <c r="E54">
+        <v>290.16</v>
+      </c>
+      <c r="F54" t="s">
+        <v>37</v>
+      </c>
+      <c r="G54">
+        <v>236</v>
+      </c>
+      <c r="H54">
+        <v>701</v>
+      </c>
+      <c r="I54">
+        <v>1000</v>
+      </c>
+      <c r="J54">
+        <v>5</v>
+      </c>
+      <c r="K54">
+        <v>1450.8</v>
+      </c>
+      <c r="L54">
+        <v>1000</v>
+      </c>
+      <c r="M54">
+        <v>1000</v>
+      </c>
+      <c r="N54">
+        <v>1000</v>
+      </c>
+      <c r="O54">
+        <v>1000</v>
+      </c>
+      <c r="P54">
+        <v>1000</v>
+      </c>
+      <c r="Q54">
+        <v>1000</v>
+      </c>
+      <c r="R54">
+        <v>1000</v>
+      </c>
+      <c r="S54">
+        <v>1000</v>
+      </c>
+      <c r="T54">
+        <v>0.04316570486397373</v>
+      </c>
+      <c r="U54">
+        <v>0.03900383007056746</v>
+      </c>
+      <c r="V54">
+        <v>0.0707197572436678</v>
+      </c>
+      <c r="W54">
+        <v>0.04316570486397373</v>
+      </c>
+      <c r="X54">
+        <v>0.05571975724366786</v>
+      </c>
+      <c r="Y54">
+        <v>0.01392993931091696</v>
+      </c>
+      <c r="Z54">
+        <v>0.01392993931091696</v>
+      </c>
+    </row>
+    <row r="55" spans="1:26">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55" t="s">
+        <v>31</v>
+      </c>
+      <c r="C55">
+        <v>17</v>
+      </c>
+      <c r="D55">
+        <v>12025</v>
+      </c>
+      <c r="E55">
+        <v>93.84</v>
+      </c>
+      <c r="F55" t="s">
+        <v>35</v>
+      </c>
+      <c r="G55">
+        <v>401</v>
+      </c>
+      <c r="H55">
+        <v>1126</v>
+      </c>
+      <c r="I55">
+        <v>1000</v>
+      </c>
+      <c r="J55">
+        <v>15</v>
+      </c>
+      <c r="K55">
+        <v>1407.6</v>
+      </c>
+      <c r="L55">
+        <v>0.08671532846715325</v>
+      </c>
+      <c r="M55">
+        <v>0.06858560794044662</v>
+      </c>
+      <c r="N55">
+        <v>0.07999999999999996</v>
+      </c>
+      <c r="O55">
+        <v>0.0939616853633667</v>
+      </c>
+      <c r="P55">
+        <v>0.1024205886081282</v>
+      </c>
+      <c r="Q55">
+        <v>0.110521327014218</v>
+      </c>
+      <c r="R55">
+        <v>0.1229906542056074</v>
+      </c>
+      <c r="S55">
+        <v>0.1331177829099307</v>
+      </c>
+      <c r="T55">
+        <v>0.09985611510791377</v>
+      </c>
+      <c r="U55">
+        <v>0.08752444993852622</v>
+      </c>
+      <c r="V55">
+        <v>0.1138179120177756</v>
+      </c>
+      <c r="W55">
+        <v>0.09985611510791377</v>
+      </c>
+      <c r="X55">
+        <v>0.09881791201777561</v>
+      </c>
+      <c r="Y55">
+        <v>0.0247044780044439</v>
+      </c>
+      <c r="Z55">
+        <v>0.0247044780044439</v>
+      </c>
+    </row>
+    <row r="56" spans="1:26">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56" t="s">
+        <v>27</v>
+      </c>
+      <c r="C56">
+        <v>5</v>
+      </c>
+      <c r="D56">
+        <v>2262</v>
+      </c>
+      <c r="E56">
+        <v>61.81575550886791</v>
+      </c>
+      <c r="F56" t="s">
+        <v>36</v>
+      </c>
+      <c r="G56">
+        <v>8</v>
+      </c>
+      <c r="H56">
+        <v>703</v>
+      </c>
+      <c r="I56">
+        <v>1000</v>
+      </c>
+      <c r="J56">
+        <v>22</v>
+      </c>
+      <c r="K56">
+        <v>1359.946621195094</v>
+      </c>
+      <c r="L56">
+        <v>1000</v>
+      </c>
+      <c r="M56">
+        <v>1000</v>
+      </c>
+      <c r="N56">
+        <v>1000</v>
+      </c>
+      <c r="O56">
+        <v>1000</v>
+      </c>
+      <c r="P56">
+        <v>1000</v>
+      </c>
+      <c r="Q56">
+        <v>1000</v>
+      </c>
+      <c r="R56">
+        <v>1000</v>
+      </c>
+      <c r="S56">
+        <v>1000</v>
+      </c>
+      <c r="T56">
+        <v>0.07345553036833107</v>
+      </c>
+      <c r="U56">
+        <v>0.04088277919675271</v>
+      </c>
+      <c r="V56">
+        <v>0.0769609906680495</v>
+      </c>
+      <c r="W56">
+        <v>0.06796004750053693</v>
+      </c>
+      <c r="X56">
+        <v>0.05130732711203304</v>
+      </c>
+      <c r="Y56">
+        <v>0.01282683177800826</v>
+      </c>
+      <c r="Z56">
+        <v>0.01282683177800826</v>
+      </c>
+    </row>
+    <row r="57" spans="1:26">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="B57" t="s">
+        <v>25</v>
+      </c>
+      <c r="C57">
+        <v>1</v>
+      </c>
+      <c r="D57">
+        <v>13853</v>
+      </c>
+      <c r="E57">
+        <v>40.58996494331726</v>
+      </c>
+      <c r="F57" t="s">
+        <v>34</v>
+      </c>
+      <c r="G57">
+        <v>797</v>
+      </c>
+      <c r="H57">
+        <v>702</v>
+      </c>
+      <c r="I57">
+        <v>1000</v>
+      </c>
+      <c r="J57">
+        <v>33</v>
+      </c>
+      <c r="K57">
+        <v>1339.46884312947</v>
+      </c>
+      <c r="L57">
+        <v>1000</v>
+      </c>
+      <c r="M57">
+        <v>1000</v>
+      </c>
+      <c r="N57">
+        <v>1000</v>
+      </c>
+      <c r="O57">
+        <v>1000</v>
+      </c>
+      <c r="P57">
+        <v>1000</v>
+      </c>
+      <c r="Q57">
+        <v>1000</v>
+      </c>
+      <c r="R57">
+        <v>1000</v>
+      </c>
+      <c r="S57">
+        <v>1000</v>
+      </c>
+      <c r="T57">
+        <v>0.05743601875536732</v>
+      </c>
+      <c r="U57">
+        <v>0.07362601440576738</v>
+      </c>
+      <c r="V57">
+        <v>0.1577700308695016</v>
+      </c>
+      <c r="W57">
+        <v>0.05654527729111124</v>
+      </c>
+      <c r="X57">
+        <v>0.1051800205796677</v>
+      </c>
+      <c r="Y57">
+        <v>0.02629500514491693</v>
+      </c>
+      <c r="Z57">
+        <v>0.02629500514491693</v>
+      </c>
+    </row>
+    <row r="58" spans="1:26">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="B58" t="s">
+        <v>28</v>
+      </c>
+      <c r="C58">
+        <v>3</v>
+      </c>
+      <c r="D58">
+        <v>1069</v>
+      </c>
+      <c r="E58">
+        <v>47.5964610422219</v>
+      </c>
+      <c r="F58" t="s">
+        <v>37</v>
+      </c>
+      <c r="G58">
+        <v>236</v>
+      </c>
+      <c r="H58">
+        <v>701</v>
+      </c>
+      <c r="I58">
+        <v>1000</v>
+      </c>
+      <c r="J58">
+        <v>28</v>
+      </c>
+      <c r="K58">
+        <v>1332.700909182213</v>
+      </c>
+      <c r="L58">
+        <v>1000</v>
+      </c>
+      <c r="M58">
+        <v>1000</v>
+      </c>
+      <c r="N58">
+        <v>1000</v>
+      </c>
+      <c r="O58">
+        <v>1000</v>
+      </c>
+      <c r="P58">
+        <v>1000</v>
+      </c>
+      <c r="Q58">
+        <v>1000</v>
+      </c>
+      <c r="R58">
+        <v>1000</v>
+      </c>
+      <c r="S58">
+        <v>1000</v>
+      </c>
+      <c r="T58">
+        <v>0.04534047053895134</v>
+      </c>
+      <c r="U58">
+        <v>0.03771088542734422</v>
+      </c>
+      <c r="V58">
+        <v>0.07620205981834338</v>
+      </c>
+      <c r="W58">
+        <v>0.044007137205618</v>
+      </c>
+      <c r="X58">
+        <v>0.05387269346763468</v>
+      </c>
+      <c r="Y58">
+        <v>0.01346817336690867</v>
+      </c>
+      <c r="Z58">
+        <v>0.01346817336690867</v>
+      </c>
+    </row>
+    <row r="59" spans="1:26">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="B59" t="s">
+        <v>25</v>
+      </c>
+      <c r="C59">
+        <v>9</v>
+      </c>
+      <c r="D59">
+        <v>13164</v>
+      </c>
+      <c r="E59">
+        <v>87.03888142106371</v>
+      </c>
+      <c r="F59" t="s">
+        <v>34</v>
+      </c>
+      <c r="G59">
+        <v>797</v>
+      </c>
+      <c r="H59">
+        <v>702</v>
+      </c>
+      <c r="I59">
+        <v>1000</v>
+      </c>
+      <c r="J59">
+        <v>15</v>
+      </c>
+      <c r="K59">
+        <v>1305.583221315956</v>
+      </c>
+      <c r="L59">
+        <v>1000</v>
+      </c>
+      <c r="M59">
+        <v>1000</v>
+      </c>
+      <c r="N59">
+        <v>1000</v>
+      </c>
+      <c r="O59">
+        <v>1000</v>
+      </c>
+      <c r="P59">
+        <v>1000</v>
+      </c>
+      <c r="Q59">
+        <v>1000</v>
+      </c>
+      <c r="R59">
+        <v>1000</v>
+      </c>
+      <c r="S59">
+        <v>1000</v>
+      </c>
+      <c r="T59">
+        <v>0.08694951771981455</v>
+      </c>
+      <c r="U59">
+        <v>0.070519481225437</v>
+      </c>
+      <c r="V59">
+        <v>0.1077098508974748</v>
+      </c>
+      <c r="W59">
+        <v>0.08732435247750414</v>
+      </c>
+      <c r="X59">
+        <v>0.08968520779183377</v>
+      </c>
+      <c r="Y59">
+        <v>0.02242130194795844</v>
+      </c>
+      <c r="Z59">
+        <v>0.02242130194795844</v>
+      </c>
+    </row>
+    <row r="60" spans="1:26">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="B60" t="s">
+        <v>30</v>
+      </c>
+      <c r="C60">
+        <v>6</v>
+      </c>
+      <c r="D60">
+        <v>13011</v>
+      </c>
+      <c r="E60">
+        <v>215.0418467644312</v>
+      </c>
+      <c r="F60" t="s">
+        <v>36</v>
+      </c>
+      <c r="G60">
+        <v>337</v>
+      </c>
+      <c r="H60">
+        <v>703</v>
+      </c>
+      <c r="I60">
+        <v>1000</v>
+      </c>
+      <c r="J60">
+        <v>6</v>
+      </c>
+      <c r="K60">
+        <v>1290.251080586587</v>
+      </c>
+      <c r="L60">
+        <v>1000</v>
+      </c>
+      <c r="M60">
+        <v>1000</v>
+      </c>
+      <c r="N60">
+        <v>1000</v>
+      </c>
+      <c r="O60">
+        <v>1000</v>
+      </c>
+      <c r="P60">
+        <v>1000</v>
+      </c>
+      <c r="Q60">
+        <v>1000</v>
+      </c>
+      <c r="R60">
+        <v>1000</v>
+      </c>
+      <c r="S60">
+        <v>1000</v>
+      </c>
+      <c r="T60">
+        <v>0.05488916905190468</v>
+      </c>
+      <c r="U60">
+        <v>0.05240910125125587</v>
+      </c>
+      <c r="V60">
+        <v>0.07000145466409941</v>
+      </c>
+      <c r="W60">
+        <v>0.05488916905190468</v>
+      </c>
+      <c r="X60">
+        <v>0.05500145466409941</v>
+      </c>
+      <c r="Y60">
+        <v>0.01375036366602485</v>
+      </c>
+      <c r="Z60">
+        <v>0.01375036366602485</v>
+      </c>
+    </row>
+    <row r="61" spans="1:26">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="B61" t="s">
+        <v>28</v>
+      </c>
+      <c r="C61">
+        <v>36</v>
+      </c>
+      <c r="D61">
+        <v>12858</v>
+      </c>
+      <c r="E61">
+        <v>46.55999018056531</v>
+      </c>
+      <c r="F61" t="s">
+        <v>37</v>
+      </c>
+      <c r="G61">
+        <v>236</v>
+      </c>
+      <c r="H61">
+        <v>701</v>
+      </c>
+      <c r="I61">
+        <v>1000</v>
+      </c>
+      <c r="J61">
+        <v>27</v>
+      </c>
+      <c r="K61">
+        <v>1257.119734875263</v>
+      </c>
+      <c r="L61">
+        <v>0.07801999642444936</v>
+      </c>
+      <c r="M61">
+        <v>0.1002900448199941</v>
+      </c>
+      <c r="N61">
+        <v>0.1046155734506672</v>
+      </c>
+      <c r="O61">
+        <v>0.1088997094628649</v>
+      </c>
+      <c r="P61">
+        <v>0.1131430441797084</v>
+      </c>
+      <c r="Q61">
+        <v>0.1173461577144018</v>
+      </c>
+      <c r="R61">
+        <v>0.1215096192346168</v>
+      </c>
+      <c r="S61">
+        <v>0.1256339872194308</v>
+      </c>
+      <c r="T61">
+        <v>0.07954253030873519</v>
+      </c>
+      <c r="U61">
+        <v>0.0724597985287023</v>
+      </c>
+      <c r="V61">
+        <v>0.1110911904245077</v>
+      </c>
+      <c r="W61">
+        <v>0.07954253030873519</v>
+      </c>
+      <c r="X61">
+        <v>0.08640153885666363</v>
+      </c>
+      <c r="Y61">
+        <v>0.02160038471416591</v>
+      </c>
+      <c r="Z61">
+        <v>0.02160038471416591</v>
+      </c>
+    </row>
+    <row r="62" spans="1:26">
+      <c r="A62" s="1">
+        <v>60</v>
+      </c>
+      <c r="B62" t="s">
         <v>32</v>
       </c>
-      <c r="G9">
+      <c r="C62">
+        <v>17</v>
+      </c>
+      <c r="D62">
+        <v>8638</v>
+      </c>
+      <c r="E62">
+        <v>74.81360089955112</v>
+      </c>
+      <c r="F62" t="s">
+        <v>38</v>
+      </c>
+      <c r="G62">
+        <v>339</v>
+      </c>
+      <c r="H62">
+        <v>704</v>
+      </c>
+      <c r="I62">
+        <v>1000</v>
+      </c>
+      <c r="J62">
+        <v>16</v>
+      </c>
+      <c r="K62">
+        <v>1197.017614392818</v>
+      </c>
+      <c r="L62">
+        <v>1000</v>
+      </c>
+      <c r="M62">
+        <v>1000</v>
+      </c>
+      <c r="N62">
+        <v>1000</v>
+      </c>
+      <c r="O62">
+        <v>1000</v>
+      </c>
+      <c r="P62">
+        <v>1000</v>
+      </c>
+      <c r="Q62">
+        <v>1000</v>
+      </c>
+      <c r="R62">
+        <v>1000</v>
+      </c>
+      <c r="S62">
+        <v>1000</v>
+      </c>
+      <c r="T62">
+        <v>0.05949408550262574</v>
+      </c>
+      <c r="U62">
+        <v>0.07362601440576738</v>
+      </c>
+      <c r="V62">
+        <v>0.1577700308695016</v>
+      </c>
+      <c r="W62">
+        <v>0.05927993605875163</v>
+      </c>
+      <c r="X62">
+        <v>0.1051800205796677</v>
+      </c>
+      <c r="Y62">
+        <v>0.02629500514491693</v>
+      </c>
+      <c r="Z62">
+        <v>0.02629500514491693</v>
+      </c>
+    </row>
+    <row r="63" spans="1:26">
+      <c r="A63" s="1">
+        <v>61</v>
+      </c>
+      <c r="B63" t="s">
+        <v>31</v>
+      </c>
+      <c r="C63">
+        <v>17</v>
+      </c>
+      <c r="D63">
+        <v>12026</v>
+      </c>
+      <c r="E63">
+        <v>93.85052846441647</v>
+      </c>
+      <c r="F63" t="s">
+        <v>35</v>
+      </c>
+      <c r="G63">
+        <v>401</v>
+      </c>
+      <c r="H63">
+        <v>1126</v>
+      </c>
+      <c r="I63">
+        <v>1000</v>
+      </c>
+      <c r="J63">
+        <v>12</v>
+      </c>
+      <c r="K63">
+        <v>1126.206341572998</v>
+      </c>
+      <c r="L63">
+        <v>0.08661286166018034</v>
+      </c>
+      <c r="M63">
+        <v>0.07111691722100004</v>
+      </c>
+      <c r="N63">
+        <v>0.07989677976062284</v>
+      </c>
+      <c r="O63">
+        <v>0.0938600315680171</v>
+      </c>
+      <c r="P63">
+        <v>0.1023198838671457</v>
+      </c>
+      <c r="Q63">
+        <v>0.1104215311429718</v>
+      </c>
+      <c r="R63">
+        <v>0.1228922573419022</v>
+      </c>
+      <c r="S63">
+        <v>0.130724756708066</v>
+      </c>
+      <c r="T63">
+        <v>0.1128874407122104</v>
+      </c>
+      <c r="U63">
+        <v>0.08680127792020442</v>
+      </c>
+      <c r="V63">
+        <v>0.1482268680266634</v>
+      </c>
+      <c r="W63">
+        <v>0.1069746352138027</v>
+      </c>
+      <c r="X63">
+        <v>0.09881791201777561</v>
+      </c>
+      <c r="Y63">
+        <v>0.0247044780044439</v>
+      </c>
+      <c r="Z63">
+        <v>0.0247044780044439</v>
+      </c>
+    </row>
+    <row r="64" spans="1:26">
+      <c r="A64" s="1">
+        <v>62</v>
+      </c>
+      <c r="B64" t="s">
+        <v>30</v>
+      </c>
+      <c r="C64">
+        <v>27</v>
+      </c>
+      <c r="D64">
+        <v>2269</v>
+      </c>
+      <c r="E64">
+        <v>41.04223443121179</v>
+      </c>
+      <c r="F64" t="s">
+        <v>36</v>
+      </c>
+      <c r="G64">
+        <v>337</v>
+      </c>
+      <c r="H64">
+        <v>703</v>
+      </c>
+      <c r="I64">
+        <v>1000</v>
+      </c>
+      <c r="J64">
+        <v>27</v>
+      </c>
+      <c r="K64">
+        <v>1108.140329642718</v>
+      </c>
+      <c r="L64">
+        <v>0.02858616730859672</v>
+      </c>
+      <c r="M64">
+        <v>0.09974841377773516</v>
+      </c>
+      <c r="N64">
+        <v>0.09995099931553098</v>
+      </c>
+      <c r="O64">
+        <v>0.09995099931553098</v>
+      </c>
+      <c r="P64">
+        <v>0.09995099931553098</v>
+      </c>
+      <c r="Q64">
+        <v>0.09995099931553098</v>
+      </c>
+      <c r="R64">
+        <v>0.09995099931553098</v>
+      </c>
+      <c r="S64">
+        <v>0.1001534936973271</v>
+      </c>
+      <c r="T64">
+        <v>0.09708797349502013</v>
+      </c>
+      <c r="U64">
+        <v>0.04059860020320858</v>
+      </c>
+      <c r="V64">
+        <v>0.0769609906680495</v>
+      </c>
+      <c r="W64">
+        <v>0.07472114798436158</v>
+      </c>
+      <c r="X64">
+        <v>0.05130732711203304</v>
+      </c>
+      <c r="Y64">
+        <v>0.01282683177800826</v>
+      </c>
+      <c r="Z64">
+        <v>0.01282683177800826</v>
+      </c>
+    </row>
+    <row r="65" spans="1:26">
+      <c r="A65" s="1">
+        <v>63</v>
+      </c>
+      <c r="B65" t="s">
+        <v>33</v>
+      </c>
+      <c r="C65">
+        <v>5</v>
+      </c>
+      <c r="D65">
+        <v>925</v>
+      </c>
+      <c r="E65">
+        <v>552.5124246078495</v>
+      </c>
+      <c r="F65" t="s">
+        <v>35</v>
+      </c>
+      <c r="G65">
+        <v>632</v>
+      </c>
+      <c r="H65">
+        <v>1125</v>
+      </c>
+      <c r="I65">
+        <v>1000</v>
+      </c>
+      <c r="J65">
+        <v>2</v>
+      </c>
+      <c r="K65">
+        <v>1105.024849215699</v>
+      </c>
+      <c r="L65">
+        <v>1000</v>
+      </c>
+      <c r="M65">
+        <v>1000</v>
+      </c>
+      <c r="N65">
+        <v>1000</v>
+      </c>
+      <c r="O65">
+        <v>1000</v>
+      </c>
+      <c r="P65">
+        <v>1000</v>
+      </c>
+      <c r="Q65">
+        <v>1000</v>
+      </c>
+      <c r="R65">
+        <v>1000</v>
+      </c>
+      <c r="S65">
+        <v>1000</v>
+      </c>
+      <c r="T65">
+        <v>0.01912446579693155</v>
+      </c>
+      <c r="U65">
+        <v>0.02600255338037833</v>
+      </c>
+      <c r="V65">
+        <v>0.05571975724366785</v>
+      </c>
+      <c r="W65">
+        <v>0.01912446579693155</v>
+      </c>
+      <c r="X65">
+        <v>0.03714650482911192</v>
+      </c>
+      <c r="Y65">
+        <v>0.00928662620727798</v>
+      </c>
+      <c r="Z65">
+        <v>0.00928662620727798</v>
+      </c>
+    </row>
+    <row r="66" spans="1:26">
+      <c r="A66" s="1">
+        <v>64</v>
+      </c>
+      <c r="B66" t="s">
+        <v>31</v>
+      </c>
+      <c r="C66">
         <v>8</v>
       </c>
-      <c r="H9">
+      <c r="D66">
+        <v>8486</v>
+      </c>
+      <c r="E66">
+        <v>131.54</v>
+      </c>
+      <c r="F66" t="s">
+        <v>35</v>
+      </c>
+      <c r="G66">
+        <v>401</v>
+      </c>
+      <c r="H66">
+        <v>1126</v>
+      </c>
+      <c r="I66">
+        <v>1000</v>
+      </c>
+      <c r="J66">
+        <v>8</v>
+      </c>
+      <c r="K66">
+        <v>1052.32</v>
+      </c>
+      <c r="L66">
+        <v>1000</v>
+      </c>
+      <c r="M66">
+        <v>1000</v>
+      </c>
+      <c r="N66">
+        <v>1000</v>
+      </c>
+      <c r="O66">
+        <v>1000</v>
+      </c>
+      <c r="P66">
+        <v>1000</v>
+      </c>
+      <c r="Q66">
+        <v>1000</v>
+      </c>
+      <c r="R66">
+        <v>1000</v>
+      </c>
+      <c r="S66">
+        <v>1000</v>
+      </c>
+      <c r="T66">
+        <v>0.05536804308797133</v>
+      </c>
+      <c r="U66">
+        <v>0.02042593765259115</v>
+      </c>
+      <c r="V66">
+        <v>0.03307185882014205</v>
+      </c>
+      <c r="W66">
+        <v>0.05536804308797133</v>
+      </c>
+      <c r="X66">
+        <v>0.040089948960025</v>
+      </c>
+      <c r="Y66">
+        <v>0.01002248724000625</v>
+      </c>
+      <c r="Z66">
+        <v>0.01002248724000625</v>
+      </c>
+    </row>
+    <row r="67" spans="1:26">
+      <c r="A67" s="1">
+        <v>65</v>
+      </c>
+      <c r="B67" t="s">
+        <v>29</v>
+      </c>
+      <c r="C67">
+        <v>2</v>
+      </c>
+      <c r="D67">
+        <v>12026</v>
+      </c>
+      <c r="E67">
+        <v>93.85052846441647</v>
+      </c>
+      <c r="F67" t="s">
+        <v>38</v>
+      </c>
+      <c r="G67">
+        <v>170</v>
+      </c>
+      <c r="H67">
+        <v>704</v>
+      </c>
+      <c r="I67">
+        <v>1000</v>
+      </c>
+      <c r="J67">
+        <v>11</v>
+      </c>
+      <c r="K67">
+        <v>1032.355813108581</v>
+      </c>
+      <c r="L67">
+        <v>0.1019088185223304</v>
+      </c>
+      <c r="M67">
+        <v>0.1019088185223304</v>
+      </c>
+      <c r="N67">
+        <v>0.1061854431960336</v>
+      </c>
+      <c r="O67">
+        <v>0.1104215311429718</v>
+      </c>
+      <c r="P67">
+        <v>0.114617655996071</v>
+      </c>
+      <c r="Q67">
+        <v>0.1187743806158078</v>
+      </c>
+      <c r="R67">
+        <v>0.1228922573419022</v>
+      </c>
+      <c r="S67">
+        <v>0.1269718282379863</v>
+      </c>
+      <c r="T67">
+        <v>0.08513611688660104</v>
+      </c>
+      <c r="U67">
+        <v>0.07139212403405583</v>
+      </c>
+      <c r="V67">
+        <v>0.1303598334858489</v>
+      </c>
+      <c r="W67">
+        <v>0.08967632306298051</v>
+      </c>
+      <c r="X67">
+        <v>0.09881791201777561</v>
+      </c>
+      <c r="Y67">
+        <v>0.0247044780044439</v>
+      </c>
+      <c r="Z67">
+        <v>0.0247044780044439</v>
+      </c>
+    </row>
+    <row r="68" spans="1:26">
+      <c r="A68" s="1">
+        <v>66</v>
+      </c>
+      <c r="B68" t="s">
+        <v>25</v>
+      </c>
+      <c r="C68">
+        <v>7</v>
+      </c>
+      <c r="D68">
+        <v>12861</v>
+      </c>
+      <c r="E68">
+        <v>46.55992938228801</v>
+      </c>
+      <c r="F68" t="s">
+        <v>34</v>
+      </c>
+      <c r="G68">
+        <v>797</v>
+      </c>
+      <c r="H68">
+        <v>702</v>
+      </c>
+      <c r="I68">
+        <v>1000</v>
+      </c>
+      <c r="J68">
+        <v>21</v>
+      </c>
+      <c r="K68">
+        <v>977.7585170280482</v>
+      </c>
+      <c r="L68">
+        <v>0.09151357302852661</v>
+      </c>
+      <c r="M68">
+        <v>0.06156912361482596</v>
+      </c>
+      <c r="N68">
+        <v>0.06880141235423977</v>
+      </c>
+      <c r="O68">
+        <v>0.0759230781946357</v>
+      </c>
+      <c r="P68">
+        <v>0.08293663995403394</v>
+      </c>
+      <c r="Q68">
+        <v>0.09916564583857811</v>
+      </c>
+      <c r="R68">
+        <v>0.1148302398804561</v>
+      </c>
+      <c r="S68">
+        <v>0.1212676965677946</v>
+      </c>
+      <c r="T68">
+        <v>0.06886556763457548</v>
+      </c>
+      <c r="U68">
+        <v>0.06048107719966452</v>
+      </c>
+      <c r="V68">
+        <v>0.1061403053357426</v>
+      </c>
+      <c r="W68">
+        <v>0.07104468003993261</v>
+      </c>
+      <c r="X68">
+        <v>0.08640153885666363</v>
+      </c>
+      <c r="Y68">
+        <v>0.02160038471416591</v>
+      </c>
+      <c r="Z68">
+        <v>0.02160038471416591</v>
+      </c>
+    </row>
+    <row r="69" spans="1:26">
+      <c r="A69" s="1">
+        <v>67</v>
+      </c>
+      <c r="B69" t="s">
+        <v>31</v>
+      </c>
+      <c r="C69">
+        <v>14</v>
+      </c>
+      <c r="D69">
+        <v>12029</v>
+      </c>
+      <c r="E69">
+        <v>96.60037722378715</v>
+      </c>
+      <c r="F69" t="s">
+        <v>35</v>
+      </c>
+      <c r="G69">
+        <v>401</v>
+      </c>
+      <c r="H69">
+        <v>1126</v>
+      </c>
+      <c r="I69">
+        <v>1000</v>
+      </c>
+      <c r="J69">
+        <v>10</v>
+      </c>
+      <c r="K69">
+        <v>966.0037722378715</v>
+      </c>
+      <c r="L69">
+        <v>0.09295420447148217</v>
+      </c>
+      <c r="M69">
+        <v>0.07003246956642938</v>
+      </c>
+      <c r="N69">
+        <v>0.07736029394663661</v>
+      </c>
+      <c r="O69">
+        <v>0.07868023630150545</v>
+      </c>
+      <c r="P69">
+        <v>0.07999640739250334</v>
+      </c>
+      <c r="Q69">
+        <v>0.09295420447148217</v>
+      </c>
+      <c r="R69">
+        <v>0.1055520627427116</v>
+      </c>
+      <c r="S69">
+        <v>0.112332853445558</v>
+      </c>
+      <c r="T69">
+        <v>0.09070465400987718</v>
+      </c>
+      <c r="U69">
+        <v>0.08217689310818317</v>
+      </c>
+      <c r="V69">
+        <v>0.1278457333580109</v>
+      </c>
+      <c r="W69">
+        <v>0.09070465400987721</v>
+      </c>
+      <c r="X69">
+        <v>0.09881791201777561</v>
+      </c>
+      <c r="Y69">
+        <v>0.0247044780044439</v>
+      </c>
+      <c r="Z69">
+        <v>0.0247044780044439</v>
+      </c>
+    </row>
+    <row r="70" spans="1:26">
+      <c r="A70" s="1">
+        <v>68</v>
+      </c>
+      <c r="B70" t="s">
+        <v>29</v>
+      </c>
+      <c r="C70">
+        <v>11</v>
+      </c>
+      <c r="D70">
+        <v>12858</v>
+      </c>
+      <c r="E70">
+        <v>46.55999018056531</v>
+      </c>
+      <c r="F70" t="s">
+        <v>38</v>
+      </c>
+      <c r="G70">
+        <v>170</v>
+      </c>
+      <c r="H70">
+        <v>704</v>
+      </c>
+      <c r="I70">
+        <v>1000</v>
+      </c>
+      <c r="J70">
+        <v>19</v>
+      </c>
+      <c r="K70">
+        <v>884.6398134307408</v>
+      </c>
+      <c r="L70">
+        <v>0.1002900448199941</v>
+      </c>
+      <c r="M70">
+        <v>0.07801999642444936</v>
+      </c>
+      <c r="N70">
+        <v>0.08705901606734691</v>
+      </c>
+      <c r="O70">
+        <v>0.09592252076572218</v>
+      </c>
+      <c r="P70">
+        <v>0.1046155734506672</v>
+      </c>
+      <c r="Q70">
+        <v>0.1131430441797084</v>
+      </c>
+      <c r="R70">
+        <v>0.1215096192346168</v>
+      </c>
+      <c r="S70">
+        <v>0.1297198097090597</v>
+      </c>
+      <c r="T70">
+        <v>0.08307941544471252</v>
+      </c>
+      <c r="U70">
+        <v>0.06443343733190049</v>
+      </c>
+      <c r="V70">
+        <v>0.1065870381068714</v>
+      </c>
+      <c r="W70">
+        <v>0.08256456768854727</v>
+      </c>
+      <c r="X70">
+        <v>0.08640153885666363</v>
+      </c>
+      <c r="Y70">
+        <v>0.02160038471416591</v>
+      </c>
+      <c r="Z70">
+        <v>0.02160038471416591</v>
+      </c>
+    </row>
+    <row r="71" spans="1:26">
+      <c r="A71" s="1">
+        <v>69</v>
+      </c>
+      <c r="B71" t="s">
+        <v>29</v>
+      </c>
+      <c r="C71">
+        <v>17</v>
+      </c>
+      <c r="D71">
+        <v>12857</v>
+      </c>
+      <c r="E71">
+        <v>46.56003331198207</v>
+      </c>
+      <c r="F71" t="s">
+        <v>38</v>
+      </c>
+      <c r="G71">
+        <v>170</v>
+      </c>
+      <c r="H71">
+        <v>704</v>
+      </c>
+      <c r="I71">
+        <v>1000</v>
+      </c>
+      <c r="J71">
+        <v>17</v>
+      </c>
+      <c r="K71">
+        <v>791.5205663036952</v>
+      </c>
+      <c r="L71">
+        <v>0.1002892113626654</v>
+      </c>
+      <c r="M71">
+        <v>0.08014422169281395</v>
+      </c>
+      <c r="N71">
+        <v>0.08705817035329279</v>
+      </c>
+      <c r="O71">
+        <v>0.1002892113626654</v>
+      </c>
+      <c r="P71">
+        <v>0.105474864323111</v>
+      </c>
+      <c r="Q71">
+        <v>0.1097507970940331</v>
+      </c>
+      <c r="R71">
+        <v>0.1198481415504335</v>
+      </c>
+      <c r="S71">
+        <v>0.1261801693090635</v>
+      </c>
+      <c r="T71">
+        <v>0.08255086218141691</v>
+      </c>
+      <c r="U71">
+        <v>0.0625416267757274</v>
+      </c>
+      <c r="V71">
+        <v>0.1077929874744783</v>
+      </c>
+      <c r="W71">
+        <v>0.08266559764608937</v>
+      </c>
+      <c r="X71">
+        <v>0.08640153885666363</v>
+      </c>
+      <c r="Y71">
+        <v>0.02160038471416591</v>
+      </c>
+      <c r="Z71">
+        <v>0.02160038471416591</v>
+      </c>
+    </row>
+    <row r="72" spans="1:26">
+      <c r="A72" s="1">
+        <v>70</v>
+      </c>
+      <c r="B72" t="s">
+        <v>27</v>
+      </c>
+      <c r="C72">
+        <v>1</v>
+      </c>
+      <c r="D72">
+        <v>12860</v>
+      </c>
+      <c r="E72">
+        <v>46.55980851933722</v>
+      </c>
+      <c r="F72" t="s">
+        <v>36</v>
+      </c>
+      <c r="G72">
+        <v>8</v>
+      </c>
+      <c r="H72">
         <v>703</v>
       </c>
-      <c r="I9">
-        <v>1000</v>
-      </c>
-      <c r="J9">
+      <c r="I72">
+        <v>1000</v>
+      </c>
+      <c r="J72">
+        <v>17</v>
+      </c>
+      <c r="K72">
+        <v>791.5167448287327</v>
+      </c>
+      <c r="L72">
+        <v>0.1002935551818895</v>
+      </c>
+      <c r="M72">
+        <v>0.06848189122097029</v>
+      </c>
+      <c r="N72">
+        <v>0.06880382961325565</v>
+      </c>
+      <c r="O72">
+        <v>0.06880382961325565</v>
+      </c>
+      <c r="P72">
+        <v>0.06880382961325565</v>
+      </c>
+      <c r="Q72">
+        <v>0.06880382961325565</v>
+      </c>
+      <c r="R72">
+        <v>0.06880382961325565</v>
+      </c>
+      <c r="S72">
+        <v>0.06912554555464134</v>
+      </c>
+      <c r="T72">
+        <v>0.06882017147377212</v>
+      </c>
+      <c r="U72">
+        <v>0.06048107719966452</v>
+      </c>
+      <c r="V72">
+        <v>0.106468041186227</v>
+      </c>
+      <c r="W72">
+        <v>0.07118683036756232</v>
+      </c>
+      <c r="X72">
+        <v>0.08640153885666363</v>
+      </c>
+      <c r="Y72">
+        <v>0.02160038471416591</v>
+      </c>
+      <c r="Z72">
+        <v>0.02160038471416591</v>
+      </c>
+    </row>
+    <row r="73" spans="1:26">
+      <c r="A73" s="1">
+        <v>71</v>
+      </c>
+      <c r="B73" t="s">
+        <v>28</v>
+      </c>
+      <c r="C73">
+        <v>10</v>
+      </c>
+      <c r="D73">
+        <v>13176</v>
+      </c>
+      <c r="E73">
+        <v>86.96592879946037</v>
+      </c>
+      <c r="F73" t="s">
+        <v>37</v>
+      </c>
+      <c r="G73">
+        <v>236</v>
+      </c>
+      <c r="H73">
+        <v>701</v>
+      </c>
+      <c r="I73">
+        <v>1000</v>
+      </c>
+      <c r="J73">
+        <v>9</v>
+      </c>
+      <c r="K73">
+        <v>782.6933591951433</v>
+      </c>
+      <c r="L73">
+        <v>0.08697187612115095</v>
+      </c>
+      <c r="M73">
+        <v>0.06469982297081005</v>
+      </c>
+      <c r="N73">
+        <v>0.06488248602730783</v>
+      </c>
+      <c r="O73">
+        <v>0.06488248602730783</v>
+      </c>
+      <c r="P73">
+        <v>0.06488248602730783</v>
+      </c>
+      <c r="Q73">
+        <v>0.06488248602730783</v>
+      </c>
+      <c r="R73">
+        <v>0.06488248602730783</v>
+      </c>
+      <c r="S73">
+        <v>0.06506507774996435</v>
+      </c>
+      <c r="T73">
+        <v>0.08456917053199609</v>
+      </c>
+      <c r="U73">
+        <v>0.07790574611614803</v>
+      </c>
+      <c r="V73">
+        <v>0.1164544167763805</v>
+      </c>
+      <c r="W73">
+        <v>0.08844386219089195</v>
+      </c>
+      <c r="X73">
+        <v>0.09081396898829847</v>
+      </c>
+      <c r="Y73">
+        <v>0.02270349224707462</v>
+      </c>
+      <c r="Z73">
+        <v>0.02270349224707462</v>
+      </c>
+    </row>
+    <row r="74" spans="1:26">
+      <c r="A74" s="1">
+        <v>72</v>
+      </c>
+      <c r="B74" t="s">
+        <v>26</v>
+      </c>
+      <c r="C74">
+        <v>4</v>
+      </c>
+      <c r="D74">
+        <v>20670</v>
+      </c>
+      <c r="E74">
+        <v>256.7295937723089</v>
+      </c>
+      <c r="F74" t="s">
+        <v>35</v>
+      </c>
+      <c r="G74">
+        <v>703</v>
+      </c>
+      <c r="H74">
+        <v>1123</v>
+      </c>
+      <c r="I74">
+        <v>1000</v>
+      </c>
+      <c r="J74">
+        <v>3</v>
+      </c>
+      <c r="K74">
+        <v>770.1887813169268</v>
+      </c>
+      <c r="L74">
+        <v>0.06982031241917054</v>
+      </c>
+      <c r="M74">
+        <v>0.06979368247144771</v>
+      </c>
+      <c r="N74">
+        <v>0.06982031241917054</v>
+      </c>
+      <c r="O74">
+        <v>0.06982031241917054</v>
+      </c>
+      <c r="P74">
+        <v>0.06982031241917054</v>
+      </c>
+      <c r="Q74">
+        <v>0.06982031241917054</v>
+      </c>
+      <c r="R74">
+        <v>0.06982031241917054</v>
+      </c>
+      <c r="S74">
+        <v>0.06984694084221267</v>
+      </c>
+      <c r="T74">
+        <v>0.03082970445691256</v>
+      </c>
+      <c r="U74">
+        <v>0.02765464931338578</v>
+      </c>
+      <c r="V74">
+        <v>0.0545066418762654</v>
+      </c>
+      <c r="W74">
+        <v>0.04498981922286753</v>
+      </c>
+      <c r="X74">
+        <v>0.03950664187626542</v>
+      </c>
+      <c r="Y74">
+        <v>0.009876660469066356</v>
+      </c>
+      <c r="Z74">
+        <v>0.009876660469066356</v>
+      </c>
+    </row>
+    <row r="75" spans="1:26">
+      <c r="A75" s="1">
+        <v>73</v>
+      </c>
+      <c r="B75" t="s">
+        <v>25</v>
+      </c>
+      <c r="C75">
+        <v>8</v>
+      </c>
+      <c r="D75">
+        <v>12026</v>
+      </c>
+      <c r="E75">
+        <v>93.85052846441647</v>
+      </c>
+      <c r="F75" t="s">
+        <v>34</v>
+      </c>
+      <c r="G75">
+        <v>797</v>
+      </c>
+      <c r="H75">
+        <v>702</v>
+      </c>
+      <c r="I75">
+        <v>1000</v>
+      </c>
+      <c r="J75">
+        <v>8</v>
+      </c>
+      <c r="K75">
+        <v>750.8042277153318</v>
+      </c>
+      <c r="L75">
+        <v>0.1125245535279766</v>
+      </c>
+      <c r="M75">
+        <v>0.06848110705293826</v>
+      </c>
+      <c r="N75">
+        <v>0.07989677976062284</v>
+      </c>
+      <c r="O75">
+        <v>0.09158593137890894</v>
+      </c>
+      <c r="P75">
+        <v>0.1008332602211596</v>
+      </c>
+      <c r="Q75">
+        <v>0.1104215311429718</v>
+      </c>
+      <c r="R75">
+        <v>0.1228922573419022</v>
+      </c>
+      <c r="S75">
+        <v>0.13302052226867</v>
+      </c>
+      <c r="T75">
+        <v>0.1297137070023402</v>
+      </c>
+      <c r="U75">
+        <v>0.07980554028510621</v>
+      </c>
+      <c r="V75">
+        <v>0.1482268680266634</v>
+      </c>
+      <c r="W75">
+        <v>0.1297137070023402</v>
+      </c>
+      <c r="X75">
+        <v>0.09881791201777561</v>
+      </c>
+      <c r="Y75">
+        <v>0.0247044780044439</v>
+      </c>
+      <c r="Z75">
+        <v>0.0247044780044439</v>
+      </c>
+    </row>
+    <row r="76" spans="1:26">
+      <c r="A76" s="1">
+        <v>74</v>
+      </c>
+      <c r="B76" t="s">
+        <v>27</v>
+      </c>
+      <c r="C76">
+        <v>7</v>
+      </c>
+      <c r="D76">
+        <v>12852</v>
+      </c>
+      <c r="E76">
+        <v>46.55974593788347</v>
+      </c>
+      <c r="F76" t="s">
+        <v>36</v>
+      </c>
+      <c r="G76">
+        <v>8</v>
+      </c>
+      <c r="H76">
+        <v>703</v>
+      </c>
+      <c r="I76">
+        <v>1000</v>
+      </c>
+      <c r="J76">
+        <v>16</v>
+      </c>
+      <c r="K76">
+        <v>744.9559350061355</v>
+      </c>
+      <c r="L76">
+        <v>0.1002947644853436</v>
+      </c>
+      <c r="M76">
+        <v>0.06848314328276549</v>
+      </c>
+      <c r="N76">
+        <v>0.0688050812423306</v>
+      </c>
+      <c r="O76">
+        <v>0.0688050812423306</v>
+      </c>
+      <c r="P76">
+        <v>0.0688050812423306</v>
+      </c>
+      <c r="Q76">
+        <v>0.0688050812423306</v>
+      </c>
+      <c r="R76">
+        <v>0.0688050812423306</v>
+      </c>
+      <c r="S76">
+        <v>0.06912679675129503</v>
+      </c>
+      <c r="T76">
+        <v>0.06888756102724054</v>
+      </c>
+      <c r="U76">
+        <v>0.06048107719966452</v>
+      </c>
+      <c r="V76">
+        <v>0.1065431031591503</v>
+      </c>
+      <c r="W76">
+        <v>0.06903547113340679</v>
+      </c>
+      <c r="X76">
+        <v>0.08640153885666363</v>
+      </c>
+      <c r="Y76">
+        <v>0.02160038471416591</v>
+      </c>
+      <c r="Z76">
+        <v>0.02160038471416591</v>
+      </c>
+    </row>
+    <row r="77" spans="1:26">
+      <c r="A77" s="1">
+        <v>75</v>
+      </c>
+      <c r="B77" t="s">
+        <v>29</v>
+      </c>
+      <c r="C77">
+        <v>9</v>
+      </c>
+      <c r="D77">
+        <v>10587</v>
+      </c>
+      <c r="E77">
+        <v>66.42775627631747</v>
+      </c>
+      <c r="F77" t="s">
+        <v>38</v>
+      </c>
+      <c r="G77">
+        <v>170</v>
+      </c>
+      <c r="H77">
+        <v>704</v>
+      </c>
+      <c r="I77">
+        <v>1000</v>
+      </c>
+      <c r="J77">
+        <v>11</v>
+      </c>
+      <c r="K77">
+        <v>730.7053190394921</v>
+      </c>
+      <c r="L77">
+        <v>1000</v>
+      </c>
+      <c r="M77">
+        <v>1000</v>
+      </c>
+      <c r="N77">
+        <v>1000</v>
+      </c>
+      <c r="O77">
+        <v>1000</v>
+      </c>
+      <c r="P77">
+        <v>1000</v>
+      </c>
+      <c r="Q77">
+        <v>1000</v>
+      </c>
+      <c r="R77">
+        <v>1000</v>
+      </c>
+      <c r="S77">
+        <v>1000</v>
+      </c>
+      <c r="T77">
+        <v>0.04588699483687485</v>
+      </c>
+      <c r="U77">
+        <v>0.04381645735367614</v>
+      </c>
+      <c r="V77">
+        <v>0.08080046396311404</v>
+      </c>
+      <c r="W77">
+        <v>0.04588699483687485</v>
+      </c>
+      <c r="X77">
+        <v>0.06259493907668029</v>
+      </c>
+      <c r="Y77">
+        <v>0.01564873476917007</v>
+      </c>
+      <c r="Z77">
+        <v>0.01564873476917007</v>
+      </c>
+    </row>
+    <row r="78" spans="1:26">
+      <c r="A78" s="1">
+        <v>76</v>
+      </c>
+      <c r="B78" t="s">
+        <v>32</v>
+      </c>
+      <c r="C78">
+        <v>3</v>
+      </c>
+      <c r="D78">
+        <v>10587</v>
+      </c>
+      <c r="E78">
+        <v>66.42775627631747</v>
+      </c>
+      <c r="F78" t="s">
+        <v>38</v>
+      </c>
+      <c r="G78">
+        <v>339</v>
+      </c>
+      <c r="H78">
+        <v>704</v>
+      </c>
+      <c r="I78">
+        <v>1000</v>
+      </c>
+      <c r="J78">
+        <v>11</v>
+      </c>
+      <c r="K78">
+        <v>730.7053190394921</v>
+      </c>
+      <c r="L78">
+        <v>1000</v>
+      </c>
+      <c r="M78">
+        <v>1000</v>
+      </c>
+      <c r="N78">
+        <v>1000</v>
+      </c>
+      <c r="O78">
+        <v>1000</v>
+      </c>
+      <c r="P78">
+        <v>1000</v>
+      </c>
+      <c r="Q78">
+        <v>1000</v>
+      </c>
+      <c r="R78">
+        <v>1000</v>
+      </c>
+      <c r="S78">
+        <v>1000</v>
+      </c>
+      <c r="T78">
+        <v>0.04588699483687485</v>
+      </c>
+      <c r="U78">
+        <v>0.04381645735367614</v>
+      </c>
+      <c r="V78">
+        <v>0.08080046396311404</v>
+      </c>
+      <c r="W78">
+        <v>0.04588699483687485</v>
+      </c>
+      <c r="X78">
+        <v>0.06259493907668029</v>
+      </c>
+      <c r="Y78">
+        <v>0.01564873476917007</v>
+      </c>
+      <c r="Z78">
+        <v>0.01564873476917007</v>
+      </c>
+    </row>
+    <row r="79" spans="1:26">
+      <c r="A79" s="1">
+        <v>77</v>
+      </c>
+      <c r="B79" t="s">
+        <v>29</v>
+      </c>
+      <c r="C79">
+        <v>13</v>
+      </c>
+      <c r="D79">
+        <v>12852</v>
+      </c>
+      <c r="E79">
+        <v>46.55974593788347</v>
+      </c>
+      <c r="F79" t="s">
+        <v>38</v>
+      </c>
+      <c r="G79">
+        <v>170</v>
+      </c>
+      <c r="H79">
+        <v>704</v>
+      </c>
+      <c r="I79">
+        <v>1000</v>
+      </c>
+      <c r="J79">
+        <v>15</v>
+      </c>
+      <c r="K79">
+        <v>698.3961890682521</v>
+      </c>
+      <c r="L79">
+        <v>0.1002947644853436</v>
+      </c>
+      <c r="M79">
+        <v>0.07802483291319862</v>
+      </c>
+      <c r="N79">
+        <v>0.0870638051395398</v>
+      </c>
+      <c r="O79">
+        <v>0.09592726334206854</v>
+      </c>
+      <c r="P79">
+        <v>0.1046202704253179</v>
+      </c>
+      <c r="Q79">
+        <v>0.1131476964212672</v>
+      </c>
+      <c r="R79">
+        <v>0.1215142275871043</v>
+      </c>
+      <c r="S79">
+        <v>0.1297243749928323</v>
+      </c>
+      <c r="T79">
+        <v>0.08257167916790148</v>
+      </c>
+      <c r="U79">
+        <v>0.0623449901443324</v>
+      </c>
+      <c r="V79">
+        <v>0.1080367015235691</v>
+      </c>
+      <c r="W79">
+        <v>0.08257167916790148</v>
+      </c>
+      <c r="X79">
+        <v>0.08640153885666363</v>
+      </c>
+      <c r="Y79">
+        <v>0.02160038471416591</v>
+      </c>
+      <c r="Z79">
+        <v>0.02160038471416591</v>
+      </c>
+    </row>
+    <row r="80" spans="1:26">
+      <c r="A80" s="1">
+        <v>78</v>
+      </c>
+      <c r="B80" t="s">
+        <v>25</v>
+      </c>
+      <c r="C80">
+        <v>13</v>
+      </c>
+      <c r="D80">
+        <v>23438</v>
+      </c>
+      <c r="E80">
+        <v>77.5787696249789</v>
+      </c>
+      <c r="F80" t="s">
+        <v>34</v>
+      </c>
+      <c r="G80">
+        <v>797</v>
+      </c>
+      <c r="H80">
+        <v>702</v>
+      </c>
+      <c r="I80">
+        <v>1000</v>
+      </c>
+      <c r="J80">
+        <v>9</v>
+      </c>
+      <c r="K80">
+        <v>698.2089266248101</v>
+      </c>
+      <c r="L80">
+        <v>0.09529131632677663</v>
+      </c>
+      <c r="M80">
+        <v>0.07534243593588917</v>
+      </c>
+      <c r="N80">
+        <v>0.07644321875025115</v>
+      </c>
+      <c r="O80">
+        <v>0.07754138376957302</v>
+      </c>
+      <c r="P80">
+        <v>0.07863694032091567</v>
+      </c>
+      <c r="Q80">
+        <v>0.0915834938527061</v>
+      </c>
+      <c r="R80">
+        <v>0.1041712514436616</v>
+      </c>
+      <c r="S80">
+        <v>0.1052045025953989</v>
+      </c>
+      <c r="T80">
+        <v>0.1058077445815894</v>
+      </c>
+      <c r="U80">
+        <v>0.07203088738319012</v>
+      </c>
+      <c r="V80">
+        <v>0.1296023082849954</v>
+      </c>
+      <c r="W80">
+        <v>0.08472781847781856</v>
+      </c>
+      <c r="X80">
+        <v>0.08640153885666363</v>
+      </c>
+      <c r="Y80">
+        <v>0.02160038471416591</v>
+      </c>
+      <c r="Z80">
+        <v>0.02160038471416591</v>
+      </c>
+    </row>
+    <row r="81" spans="1:26">
+      <c r="A81" s="1">
+        <v>79</v>
+      </c>
+      <c r="B81" t="s">
+        <v>29</v>
+      </c>
+      <c r="C81">
+        <v>1</v>
+      </c>
+      <c r="D81">
+        <v>12025</v>
+      </c>
+      <c r="E81">
+        <v>93.84</v>
+      </c>
+      <c r="F81" t="s">
+        <v>38</v>
+      </c>
+      <c r="G81">
+        <v>170</v>
+      </c>
+      <c r="H81">
+        <v>704</v>
+      </c>
+      <c r="I81">
+        <v>1000</v>
+      </c>
+      <c r="J81">
+        <v>7</v>
+      </c>
+      <c r="K81">
+        <v>656.88</v>
+      </c>
+      <c r="L81">
+        <v>0.1020095693779904</v>
+      </c>
+      <c r="M81">
+        <v>0.1020095693779904</v>
+      </c>
+      <c r="N81">
+        <v>0.1062857142857142</v>
+      </c>
+      <c r="O81">
+        <v>0.110521327014218</v>
+      </c>
+      <c r="P81">
+        <v>0.1147169811320754</v>
+      </c>
+      <c r="Q81">
+        <v>0.1188732394366197</v>
+      </c>
+      <c r="R81">
+        <v>0.1229906542056074</v>
+      </c>
+      <c r="S81">
+        <v>0.1270697674418604</v>
+      </c>
+      <c r="T81">
+        <v>0.09525897435897442</v>
+      </c>
+      <c r="U81">
+        <v>0.07474194574509015</v>
+      </c>
+      <c r="V81">
+        <v>0.1211295131763138</v>
+      </c>
+      <c r="W81">
+        <v>0.09113801452784501</v>
+      </c>
+      <c r="X81">
+        <v>0.09881791201777561</v>
+      </c>
+      <c r="Y81">
+        <v>0.0247044780044439</v>
+      </c>
+      <c r="Z81">
+        <v>0.0247044780044439</v>
+      </c>
+    </row>
+    <row r="82" spans="1:26">
+      <c r="A82" s="1">
+        <v>80</v>
+      </c>
+      <c r="B82" t="s">
+        <v>27</v>
+      </c>
+      <c r="C82">
+        <v>12</v>
+      </c>
+      <c r="D82">
+        <v>12859</v>
+      </c>
+      <c r="E82">
+        <v>46.55997408531971</v>
+      </c>
+      <c r="F82" t="s">
+        <v>36</v>
+      </c>
+      <c r="G82">
+        <v>8</v>
+      </c>
+      <c r="H82">
+        <v>703</v>
+      </c>
+      <c r="I82">
+        <v>1000</v>
+      </c>
+      <c r="J82">
+        <v>14</v>
+      </c>
+      <c r="K82">
+        <v>651.8396371944759</v>
+      </c>
+      <c r="L82">
+        <v>0.1002903558392327</v>
+      </c>
+      <c r="M82">
+        <v>0.05461981552650337</v>
+      </c>
+      <c r="N82">
+        <v>0.05939446292283416</v>
+      </c>
+      <c r="O82">
+        <v>0.06412112391317168</v>
+      </c>
+      <c r="P82">
+        <v>0.06880051829360583</v>
+      </c>
+      <c r="Q82">
+        <v>0.09372313215922708</v>
+      </c>
+      <c r="R82">
+        <v>0.1173464628375411</v>
+      </c>
+      <c r="S82">
+        <v>0.121509922918496</v>
+      </c>
+      <c r="T82">
+        <v>0.06880461063133142</v>
+      </c>
+      <c r="U82">
+        <v>0.06048107719966452</v>
+      </c>
+      <c r="V82">
+        <v>0.1066004534859457</v>
+      </c>
+      <c r="W82">
+        <v>0.0717399038149297</v>
+      </c>
+      <c r="X82">
+        <v>0.08640153885666363</v>
+      </c>
+      <c r="Y82">
+        <v>0.02160038471416591</v>
+      </c>
+      <c r="Z82">
+        <v>0.02160038471416591</v>
+      </c>
+    </row>
+    <row r="83" spans="1:26">
+      <c r="A83" s="1">
+        <v>81</v>
+      </c>
+      <c r="B83" t="s">
+        <v>29</v>
+      </c>
+      <c r="C83">
+        <v>12</v>
+      </c>
+      <c r="D83">
+        <v>12860</v>
+      </c>
+      <c r="E83">
+        <v>46.55980851933722</v>
+      </c>
+      <c r="F83" t="s">
+        <v>38</v>
+      </c>
+      <c r="G83">
+        <v>170</v>
+      </c>
+      <c r="H83">
+        <v>704</v>
+      </c>
+      <c r="I83">
+        <v>1000</v>
+      </c>
+      <c r="J83">
+        <v>14</v>
+      </c>
+      <c r="K83">
+        <v>651.8373192707211</v>
+      </c>
+      <c r="L83">
+        <v>0.1002935551818895</v>
+      </c>
+      <c r="M83">
+        <v>0.06412445187261875</v>
+      </c>
+      <c r="N83">
+        <v>0.06880382961325565</v>
+      </c>
+      <c r="O83">
+        <v>0.07343664638134892</v>
+      </c>
+      <c r="P83">
+        <v>0.07802359367649075</v>
+      </c>
+      <c r="Q83">
+        <v>0.08256534937266567</v>
+      </c>
+      <c r="R83">
+        <v>0.08706257805221143</v>
+      </c>
+      <c r="S83">
+        <v>0.09151593133000552</v>
+      </c>
+      <c r="T83">
+        <v>0.08258144972785431</v>
+      </c>
+      <c r="U83">
+        <v>0.06203045542530879</v>
+      </c>
+      <c r="V83">
+        <v>0.1083889374759275</v>
+      </c>
+      <c r="W83">
+        <v>0.08257516623486524</v>
+      </c>
+      <c r="X83">
+        <v>0.08640153885666363</v>
+      </c>
+      <c r="Y83">
+        <v>0.02160038471416591</v>
+      </c>
+      <c r="Z83">
+        <v>0.02160038471416591</v>
+      </c>
+    </row>
+    <row r="84" spans="1:26">
+      <c r="A84" s="1">
+        <v>82</v>
+      </c>
+      <c r="B84" t="s">
+        <v>31</v>
+      </c>
+      <c r="C84">
+        <v>21</v>
+      </c>
+      <c r="D84">
+        <v>8167</v>
+      </c>
+      <c r="E84">
+        <v>46.20875739748483</v>
+      </c>
+      <c r="F84" t="s">
+        <v>35</v>
+      </c>
+      <c r="G84">
+        <v>401</v>
+      </c>
+      <c r="H84">
+        <v>1126</v>
+      </c>
+      <c r="I84">
+        <v>1000</v>
+      </c>
+      <c r="J84">
+        <v>14</v>
+      </c>
+      <c r="K84">
+        <v>646.9226035647877</v>
+      </c>
+      <c r="L84">
+        <v>0.08948261285744175</v>
+      </c>
+      <c r="M84">
+        <v>0.07118075582945063</v>
+      </c>
+      <c r="N84">
+        <v>0.07582485205030337</v>
+      </c>
+      <c r="O84">
+        <v>0.08343236343380279</v>
+      </c>
+      <c r="P84">
+        <v>0.09091565222339498</v>
+      </c>
+      <c r="Q84">
+        <v>0.09243332225307214</v>
+      </c>
+      <c r="R84">
+        <v>0.09394593338265037</v>
+      </c>
+      <c r="S84">
+        <v>0.09836570931736915</v>
+      </c>
+      <c r="T84">
+        <v>0.07234615011322798</v>
+      </c>
+      <c r="U84">
+        <v>0.05915554441655763</v>
+      </c>
+      <c r="V84">
+        <v>0.0861119553772777</v>
+      </c>
+      <c r="W84">
+        <v>0.08047193390204724</v>
+      </c>
+      <c r="X84">
+        <v>0.07111195537727778</v>
+      </c>
+      <c r="Y84">
+        <v>0.01777798884431945</v>
+      </c>
+      <c r="Z84">
+        <v>0.01777798884431945</v>
+      </c>
+    </row>
+    <row r="85" spans="1:26">
+      <c r="A85" s="1">
+        <v>83</v>
+      </c>
+      <c r="B85" t="s">
+        <v>25</v>
+      </c>
+      <c r="C85">
         <v>6</v>
       </c>
-      <c r="K9">
-        <v>5145.237049192398</v>
-      </c>
-      <c r="L9">
-        <v>0.01686499489970413</v>
-      </c>
-      <c r="M9">
-        <v>0.04184785005577363</v>
-      </c>
-      <c r="N9">
-        <v>0.04185529810197422</v>
-      </c>
-      <c r="O9">
-        <v>0.04185529810197422</v>
-      </c>
-      <c r="P9">
-        <v>0.04185529810197422</v>
-      </c>
-      <c r="Q9">
-        <v>0.04185529810197422</v>
-      </c>
-      <c r="R9">
-        <v>0.04185529810197422</v>
-      </c>
-      <c r="S9">
-        <v>0.04186274603238326</v>
-      </c>
-      <c r="T9">
-        <v>0.03809365317023772</v>
-      </c>
-      <c r="U9">
-        <v>0.03205070277495393</v>
-      </c>
-      <c r="V9">
-        <v>0.0497857140950309</v>
-      </c>
-      <c r="W9">
-        <v>0.03809365317023772</v>
-      </c>
-      <c r="X9">
-        <v>0.03478571409503096</v>
-      </c>
-      <c r="Y9">
-        <v>0.01739285704751548</v>
-      </c>
-      <c r="Z9">
-        <v>0.01739285704751548</v>
+      <c r="D85">
+        <v>13005</v>
+      </c>
+      <c r="E85">
+        <v>158.7751111111111</v>
+      </c>
+      <c r="F85" t="s">
+        <v>34</v>
+      </c>
+      <c r="G85">
+        <v>797</v>
+      </c>
+      <c r="H85">
+        <v>702</v>
+      </c>
+      <c r="I85">
+        <v>1000</v>
+      </c>
+      <c r="J85">
+        <v>4</v>
+      </c>
+      <c r="K85">
+        <v>635.1004444444445</v>
+      </c>
+      <c r="L85">
+        <v>1000</v>
+      </c>
+      <c r="M85">
+        <v>1000</v>
+      </c>
+      <c r="N85">
+        <v>1000</v>
+      </c>
+      <c r="O85">
+        <v>1000</v>
+      </c>
+      <c r="P85">
+        <v>1000</v>
+      </c>
+      <c r="Q85">
+        <v>1000</v>
+      </c>
+      <c r="R85">
+        <v>1000</v>
+      </c>
+      <c r="S85">
+        <v>1000</v>
+      </c>
+      <c r="T85">
+        <v>0.05208888888888877</v>
+      </c>
+      <c r="U85">
+        <v>0.02458449324083066</v>
+      </c>
+      <c r="V85">
+        <v>0.04417560864346035</v>
+      </c>
+      <c r="W85">
+        <v>0.05208888888888877</v>
+      </c>
+      <c r="X85">
+        <v>0.02945040576230695</v>
+      </c>
+      <c r="Y85">
+        <v>0.007362601440576738</v>
+      </c>
+      <c r="Z85">
+        <v>0.007362601440576738</v>
+      </c>
+    </row>
+    <row r="86" spans="1:26">
+      <c r="A86" s="1">
+        <v>84</v>
+      </c>
+      <c r="B86" t="s">
+        <v>26</v>
+      </c>
+      <c r="C86">
+        <v>5</v>
+      </c>
+      <c r="D86">
+        <v>11226</v>
+      </c>
+      <c r="E86">
+        <v>608.6896457114071</v>
+      </c>
+      <c r="F86" t="s">
+        <v>35</v>
+      </c>
+      <c r="G86">
+        <v>703</v>
+      </c>
+      <c r="H86">
+        <v>1123</v>
+      </c>
+      <c r="I86">
+        <v>1000</v>
+      </c>
+      <c r="J86">
+        <v>1</v>
+      </c>
+      <c r="K86">
+        <v>608.6896457114071</v>
+      </c>
+      <c r="L86">
+        <v>1000</v>
+      </c>
+      <c r="M86">
+        <v>1000</v>
+      </c>
+      <c r="N86">
+        <v>1000</v>
+      </c>
+      <c r="O86">
+        <v>1000</v>
+      </c>
+      <c r="P86">
+        <v>1000</v>
+      </c>
+      <c r="Q86">
+        <v>1000</v>
+      </c>
+      <c r="R86">
+        <v>1000</v>
+      </c>
+      <c r="S86">
+        <v>1000</v>
+      </c>
+      <c r="T86">
+        <v>0.03232090804909219</v>
+      </c>
+      <c r="U86">
+        <v>0.03232361608058078</v>
+      </c>
+      <c r="V86">
+        <v>0.06427324017167778</v>
+      </c>
+      <c r="W86">
+        <v>0.05002861377360139</v>
+      </c>
+      <c r="X86">
+        <v>0.04617659440082972</v>
+      </c>
+      <c r="Y86">
+        <v>0.01154414860020743</v>
+      </c>
+      <c r="Z86">
+        <v>0.01154414860020743</v>
+      </c>
+    </row>
+    <row r="87" spans="1:26">
+      <c r="A87" s="1">
+        <v>85</v>
+      </c>
+      <c r="B87" t="s">
+        <v>28</v>
+      </c>
+      <c r="C87">
+        <v>7</v>
+      </c>
+      <c r="D87">
+        <v>12867</v>
+      </c>
+      <c r="E87">
+        <v>46.5599933516138</v>
+      </c>
+      <c r="F87" t="s">
+        <v>37</v>
+      </c>
+      <c r="G87">
+        <v>236</v>
+      </c>
+      <c r="H87">
+        <v>701</v>
+      </c>
+      <c r="I87">
+        <v>1000</v>
+      </c>
+      <c r="J87">
+        <v>13</v>
+      </c>
+      <c r="K87">
+        <v>605.2799135709794</v>
+      </c>
+      <c r="L87">
+        <v>0.07801993363140994</v>
+      </c>
+      <c r="M87">
+        <v>0.06693400096966334</v>
+      </c>
+      <c r="N87">
+        <v>0.06880013296772404</v>
+      </c>
+      <c r="O87">
+        <v>0.08705895388992553</v>
+      </c>
+      <c r="P87">
+        <v>0.1046155124689654</v>
+      </c>
+      <c r="Q87">
+        <v>0.1063341007367793</v>
+      </c>
+      <c r="R87">
+        <v>0.1080461043752146</v>
+      </c>
+      <c r="S87">
+        <v>0.109751561154612</v>
+      </c>
+      <c r="T87">
+        <v>0.07818728147600577</v>
+      </c>
+      <c r="U87">
+        <v>0.06973456067611905</v>
+      </c>
+      <c r="V87">
+        <v>0.1122625332752947</v>
+      </c>
+      <c r="W87">
+        <v>0.07916503992376536</v>
+      </c>
+      <c r="X87">
+        <v>0.08640153885666363</v>
+      </c>
+      <c r="Y87">
+        <v>0.02160038471416591</v>
+      </c>
+      <c r="Z87">
+        <v>0.02160038471416591</v>
+      </c>
+    </row>
+    <row r="88" spans="1:26">
+      <c r="A88" s="1">
+        <v>86</v>
+      </c>
+      <c r="B88" t="s">
+        <v>31</v>
+      </c>
+      <c r="C88">
+        <v>15</v>
+      </c>
+      <c r="D88">
+        <v>12533</v>
+      </c>
+      <c r="E88">
+        <v>53.00999999999998</v>
+      </c>
+      <c r="F88" t="s">
+        <v>35</v>
+      </c>
+      <c r="G88">
+        <v>401</v>
+      </c>
+      <c r="H88">
+        <v>1126</v>
+      </c>
+      <c r="I88">
+        <v>1000</v>
+      </c>
+      <c r="J88">
+        <v>11</v>
+      </c>
+      <c r="K88">
+        <v>583.1099999999998</v>
+      </c>
+      <c r="L88">
+        <v>1000</v>
+      </c>
+      <c r="M88">
+        <v>1000</v>
+      </c>
+      <c r="N88">
+        <v>1000</v>
+      </c>
+      <c r="O88">
+        <v>1000</v>
+      </c>
+      <c r="P88">
+        <v>1000</v>
+      </c>
+      <c r="Q88">
+        <v>1000</v>
+      </c>
+      <c r="R88">
+        <v>1000</v>
+      </c>
+      <c r="S88">
+        <v>1000</v>
+      </c>
+      <c r="T88">
+        <v>0.0273394495412847</v>
+      </c>
+      <c r="U88">
+        <v>0.02367392709628096</v>
+      </c>
+      <c r="V88">
+        <v>0.0454765523045476</v>
+      </c>
+      <c r="W88">
+        <v>0.0273394495412847</v>
+      </c>
+      <c r="X88">
+        <v>0.03047655230454761</v>
+      </c>
+      <c r="Y88">
+        <v>0.007619138076136903</v>
+      </c>
+      <c r="Z88">
+        <v>0.007619138076136903</v>
+      </c>
+    </row>
+    <row r="89" spans="1:26">
+      <c r="A89" s="1">
+        <v>87</v>
+      </c>
+      <c r="B89" t="s">
+        <v>32</v>
+      </c>
+      <c r="C89">
+        <v>14</v>
+      </c>
+      <c r="D89">
+        <v>2270</v>
+      </c>
+      <c r="E89">
+        <v>40.25321011918424</v>
+      </c>
+      <c r="F89" t="s">
+        <v>38</v>
+      </c>
+      <c r="G89">
+        <v>339</v>
+      </c>
+      <c r="H89">
+        <v>704</v>
+      </c>
+      <c r="I89">
+        <v>1000</v>
+      </c>
+      <c r="J89">
+        <v>14</v>
+      </c>
+      <c r="K89">
+        <v>563.5449416685793</v>
+      </c>
+      <c r="L89">
+        <v>1000</v>
+      </c>
+      <c r="M89">
+        <v>1000</v>
+      </c>
+      <c r="N89">
+        <v>1000</v>
+      </c>
+      <c r="O89">
+        <v>1000</v>
+      </c>
+      <c r="P89">
+        <v>1000</v>
+      </c>
+      <c r="Q89">
+        <v>1000</v>
+      </c>
+      <c r="R89">
+        <v>1000</v>
+      </c>
+      <c r="S89">
+        <v>1000</v>
+      </c>
+      <c r="T89">
+        <v>0.05493589855053924</v>
+      </c>
+      <c r="U89">
+        <v>0.04797672266236158</v>
+      </c>
+      <c r="V89">
+        <v>0.06934910830269909</v>
+      </c>
+      <c r="W89">
+        <v>0.05279516264798238</v>
+      </c>
+      <c r="X89">
+        <v>0.05130732711203304</v>
+      </c>
+      <c r="Y89">
+        <v>0.01282683177800826</v>
+      </c>
+      <c r="Z89">
+        <v>0.01282683177800826</v>
+      </c>
+    </row>
+    <row r="90" spans="1:26">
+      <c r="A90" s="1">
+        <v>88</v>
+      </c>
+      <c r="B90" t="s">
+        <v>31</v>
+      </c>
+      <c r="C90">
+        <v>10</v>
+      </c>
+      <c r="D90">
+        <v>12024</v>
+      </c>
+      <c r="E90">
+        <v>93.84011117767275</v>
+      </c>
+      <c r="F90" t="s">
+        <v>35</v>
+      </c>
+      <c r="G90">
+        <v>401</v>
+      </c>
+      <c r="H90">
+        <v>1126</v>
+      </c>
+      <c r="I90">
+        <v>1000</v>
+      </c>
+      <c r="J90">
+        <v>6</v>
+      </c>
+      <c r="K90">
+        <v>563.0406670660366</v>
+      </c>
+      <c r="L90">
+        <v>0.08671424644600727</v>
+      </c>
+      <c r="M90">
+        <v>0.09218878104325576</v>
+      </c>
+      <c r="N90">
+        <v>0.09852081797848905</v>
+      </c>
+      <c r="O90">
+        <v>0.1024195251939118</v>
+      </c>
+      <c r="P90">
+        <v>0.1062846554507357</v>
+      </c>
+      <c r="Q90">
+        <v>0.1147159322861061</v>
+      </c>
+      <c r="R90">
+        <v>0.1229896151619369</v>
+      </c>
+      <c r="S90">
+        <v>0.1289006648521174</v>
+      </c>
+      <c r="T90">
+        <v>0.10093035555289</v>
+      </c>
+      <c r="U90">
+        <v>0.08259040172130944</v>
+      </c>
+      <c r="V90">
+        <v>0.1196303423554227</v>
+      </c>
+      <c r="W90">
+        <v>0.1019009061813296</v>
+      </c>
+      <c r="X90">
+        <v>0.09881791201777561</v>
+      </c>
+      <c r="Y90">
+        <v>0.0247044780044439</v>
+      </c>
+      <c r="Z90">
+        <v>0.0247044780044439</v>
+      </c>
+    </row>
+    <row r="91" spans="1:26">
+      <c r="A91" s="1">
+        <v>89</v>
+      </c>
+      <c r="B91" t="s">
+        <v>25</v>
+      </c>
+      <c r="C91">
+        <v>7</v>
+      </c>
+      <c r="D91">
+        <v>12024</v>
+      </c>
+      <c r="E91">
+        <v>93.84011117767275</v>
+      </c>
+      <c r="F91" t="s">
+        <v>34</v>
+      </c>
+      <c r="G91">
+        <v>797</v>
+      </c>
+      <c r="H91">
+        <v>702</v>
+      </c>
+      <c r="I91">
+        <v>1000</v>
+      </c>
+      <c r="J91">
+        <v>6</v>
+      </c>
+      <c r="K91">
+        <v>563.0406670660366</v>
+      </c>
+      <c r="L91">
+        <v>0.1126230621496666</v>
+      </c>
+      <c r="M91">
+        <v>0.08837779062370124</v>
+      </c>
+      <c r="N91">
+        <v>0.09551700069713009</v>
+      </c>
+      <c r="O91">
+        <v>0.1009330665612191</v>
+      </c>
+      <c r="P91">
+        <v>0.1062846554507357</v>
+      </c>
+      <c r="Q91">
+        <v>0.1147159322861061</v>
+      </c>
+      <c r="R91">
+        <v>0.1229896151619369</v>
+      </c>
+      <c r="S91">
+        <v>0.1295989687868034</v>
+      </c>
+      <c r="T91">
+        <v>0.1306594805590107</v>
+      </c>
+      <c r="U91">
+        <v>0.08026091164447058</v>
+      </c>
+      <c r="V91">
+        <v>0.1482268680266634</v>
+      </c>
+      <c r="W91">
+        <v>0.1306594805590107</v>
+      </c>
+      <c r="X91">
+        <v>0.09881791201777561</v>
+      </c>
+      <c r="Y91">
+        <v>0.0247044780044439</v>
+      </c>
+      <c r="Z91">
+        <v>0.0247044780044439</v>
+      </c>
+    </row>
+    <row r="92" spans="1:26">
+      <c r="A92" s="1">
+        <v>90</v>
+      </c>
+      <c r="B92" t="s">
+        <v>29</v>
+      </c>
+      <c r="C92">
+        <v>7</v>
+      </c>
+      <c r="D92">
+        <v>8638</v>
+      </c>
+      <c r="E92">
+        <v>74.81360089955112</v>
+      </c>
+      <c r="F92" t="s">
+        <v>38</v>
+      </c>
+      <c r="G92">
+        <v>170</v>
+      </c>
+      <c r="H92">
+        <v>704</v>
+      </c>
+      <c r="I92">
+        <v>1000</v>
+      </c>
+      <c r="J92">
+        <v>7</v>
+      </c>
+      <c r="K92">
+        <v>523.6952062968578</v>
+      </c>
+      <c r="L92">
+        <v>1000</v>
+      </c>
+      <c r="M92">
+        <v>1000</v>
+      </c>
+      <c r="N92">
+        <v>1000</v>
+      </c>
+      <c r="O92">
+        <v>1000</v>
+      </c>
+      <c r="P92">
+        <v>1000</v>
+      </c>
+      <c r="Q92">
+        <v>1000</v>
+      </c>
+      <c r="R92">
+        <v>1000</v>
+      </c>
+      <c r="S92">
+        <v>1000</v>
+      </c>
+      <c r="T92">
+        <v>0.05949408550262574</v>
+      </c>
+      <c r="U92">
+        <v>0.07362601440576738</v>
+      </c>
+      <c r="V92">
+        <v>0.1577700308695016</v>
+      </c>
+      <c r="W92">
+        <v>0.05927993605875163</v>
+      </c>
+      <c r="X92">
+        <v>0.1051800205796677</v>
+      </c>
+      <c r="Y92">
+        <v>0.02629500514491693</v>
+      </c>
+      <c r="Z92">
+        <v>0.02629500514491693</v>
+      </c>
+    </row>
+    <row r="93" spans="1:26">
+      <c r="A93" s="1">
+        <v>91</v>
+      </c>
+      <c r="B93" t="s">
+        <v>28</v>
+      </c>
+      <c r="C93">
+        <v>4</v>
+      </c>
+      <c r="D93">
+        <v>20602</v>
+      </c>
+      <c r="E93">
+        <v>172.3252824858756</v>
+      </c>
+      <c r="F93" t="s">
+        <v>37</v>
+      </c>
+      <c r="G93">
+        <v>236</v>
+      </c>
+      <c r="H93">
+        <v>701</v>
+      </c>
+      <c r="I93">
+        <v>1000</v>
+      </c>
+      <c r="J93">
+        <v>3</v>
+      </c>
+      <c r="K93">
+        <v>516.975847457627</v>
+      </c>
+      <c r="L93">
+        <v>1000</v>
+      </c>
+      <c r="M93">
+        <v>1000</v>
+      </c>
+      <c r="N93">
+        <v>1000</v>
+      </c>
+      <c r="O93">
+        <v>1000</v>
+      </c>
+      <c r="P93">
+        <v>1000</v>
+      </c>
+      <c r="Q93">
+        <v>1000</v>
+      </c>
+      <c r="R93">
+        <v>1000</v>
+      </c>
+      <c r="S93">
+        <v>1000</v>
+      </c>
+      <c r="T93">
+        <v>0.1010413249270343</v>
+      </c>
+      <c r="U93">
+        <v>0.0795845765323097</v>
+      </c>
+      <c r="V93">
+        <v>0.1296314067274679</v>
+      </c>
+      <c r="W93">
+        <v>0.1050565925074053</v>
+      </c>
+      <c r="X93">
+        <v>0.08917213452071343</v>
+      </c>
+      <c r="Y93">
+        <v>0.02229303363017836</v>
+      </c>
+      <c r="Z93">
+        <v>0.02229303363017836</v>
+      </c>
+    </row>
+    <row r="94" spans="1:26">
+      <c r="A94" s="1">
+        <v>92</v>
+      </c>
+      <c r="B94" t="s">
+        <v>29</v>
+      </c>
+      <c r="C94">
+        <v>6</v>
+      </c>
+      <c r="D94">
+        <v>12861</v>
+      </c>
+      <c r="E94">
+        <v>46.55992938228801</v>
+      </c>
+      <c r="F94" t="s">
+        <v>38</v>
+      </c>
+      <c r="G94">
+        <v>170</v>
+      </c>
+      <c r="H94">
+        <v>704</v>
+      </c>
+      <c r="I94">
+        <v>1000</v>
+      </c>
+      <c r="J94">
+        <v>11</v>
+      </c>
+      <c r="K94">
+        <v>512.1592232051681</v>
+      </c>
+      <c r="L94">
+        <v>0.1002912196659321</v>
+      </c>
+      <c r="M94">
+        <v>0.07802120035073244</v>
+      </c>
+      <c r="N94">
+        <v>0.08706020819043114</v>
+      </c>
+      <c r="O94">
+        <v>0.0959237013147959</v>
+      </c>
+      <c r="P94">
+        <v>0.1046167426483075</v>
+      </c>
+      <c r="Q94">
+        <v>0.1131442022421331</v>
+      </c>
+      <c r="R94">
+        <v>0.1215107663719243</v>
+      </c>
+      <c r="S94">
+        <v>0.1297209461254577</v>
+      </c>
+      <c r="T94">
+        <v>0.08483758476586822</v>
+      </c>
+      <c r="U94">
+        <v>0.0717825831623088</v>
+      </c>
+      <c r="V94">
+        <v>0.1014015388566636</v>
+      </c>
+      <c r="W94">
+        <v>0.08257461707775565</v>
+      </c>
+      <c r="X94">
+        <v>0.08640153885666363</v>
+      </c>
+      <c r="Y94">
+        <v>0.02160038471416591</v>
+      </c>
+      <c r="Z94">
+        <v>0.02160038471416591</v>
+      </c>
+    </row>
+    <row r="95" spans="1:26">
+      <c r="A95" s="1">
+        <v>93</v>
+      </c>
+      <c r="B95" t="s">
+        <v>25</v>
+      </c>
+      <c r="C95">
+        <v>7</v>
+      </c>
+      <c r="D95">
+        <v>12025</v>
+      </c>
+      <c r="E95">
+        <v>93.84</v>
+      </c>
+      <c r="F95" t="s">
+        <v>34</v>
+      </c>
+      <c r="G95">
+        <v>797</v>
+      </c>
+      <c r="H95">
+        <v>702</v>
+      </c>
+      <c r="I95">
+        <v>1000</v>
+      </c>
+      <c r="J95">
+        <v>5</v>
+      </c>
+      <c r="K95">
+        <v>469.2</v>
+      </c>
+      <c r="L95">
+        <v>0.1126241134751773</v>
+      </c>
+      <c r="M95">
+        <v>0.06858560794044662</v>
+      </c>
+      <c r="N95">
+        <v>0.07999999999999996</v>
+      </c>
+      <c r="O95">
+        <v>0.09168784029038109</v>
+      </c>
+      <c r="P95">
+        <v>0.1009341317365269</v>
+      </c>
+      <c r="Q95">
+        <v>0.110521327014218</v>
+      </c>
+      <c r="R95">
+        <v>0.1229906542056074</v>
+      </c>
+      <c r="S95">
+        <v>0.1331177829099307</v>
+      </c>
+      <c r="T95">
+        <v>0.1041527446300716</v>
+      </c>
+      <c r="U95">
+        <v>0.09331772552026235</v>
+      </c>
+      <c r="V95">
+        <v>0.1316664535585809</v>
+      </c>
+      <c r="W95">
+        <v>0.103081157004031</v>
+      </c>
+      <c r="X95">
+        <v>0.09881791201777561</v>
+      </c>
+      <c r="Y95">
+        <v>0.0247044780044439</v>
+      </c>
+      <c r="Z95">
+        <v>0.0247044780044439</v>
+      </c>
+    </row>
+    <row r="96" spans="1:26">
+      <c r="A96" s="1">
+        <v>94</v>
+      </c>
+      <c r="B96" t="s">
+        <v>32</v>
+      </c>
+      <c r="C96">
+        <v>1</v>
+      </c>
+      <c r="D96">
+        <v>3737</v>
+      </c>
+      <c r="E96">
+        <v>437.6191875457874</v>
+      </c>
+      <c r="F96" t="s">
+        <v>38</v>
+      </c>
+      <c r="G96">
+        <v>339</v>
+      </c>
+      <c r="H96">
+        <v>704</v>
+      </c>
+      <c r="I96">
+        <v>1000</v>
+      </c>
+      <c r="J96">
+        <v>1</v>
+      </c>
+      <c r="K96">
+        <v>437.6191875457874</v>
+      </c>
+      <c r="L96">
+        <v>0.05071759751456087</v>
+      </c>
+      <c r="M96">
+        <v>0.0628936835706518</v>
+      </c>
+      <c r="N96">
+        <v>0.0629139452980997</v>
+      </c>
+      <c r="O96">
+        <v>0.0629139452980997</v>
+      </c>
+      <c r="P96">
+        <v>0.0629139452980997</v>
+      </c>
+      <c r="Q96">
+        <v>0.0629139452980997</v>
+      </c>
+      <c r="R96">
+        <v>0.0629139452980997</v>
+      </c>
+      <c r="S96">
+        <v>0.06293420614938507</v>
+      </c>
+      <c r="T96">
+        <v>0.03978236413431171</v>
+      </c>
+      <c r="U96">
+        <v>0.03534048691476835</v>
+      </c>
+      <c r="V96">
+        <v>0.0654864098782405</v>
+      </c>
+      <c r="W96">
+        <v>0.03978236413431171</v>
+      </c>
+      <c r="X96">
+        <v>0.0504864098782405</v>
+      </c>
+      <c r="Y96">
+        <v>0.01262160246956012</v>
+      </c>
+      <c r="Z96">
+        <v>0.01262160246956012</v>
+      </c>
+    </row>
+    <row r="97" spans="1:26">
+      <c r="A97" s="1">
+        <v>95</v>
+      </c>
+      <c r="B97" t="s">
+        <v>29</v>
+      </c>
+      <c r="C97">
+        <v>1</v>
+      </c>
+      <c r="D97">
+        <v>3737</v>
+      </c>
+      <c r="E97">
+        <v>437.6191875457874</v>
+      </c>
+      <c r="F97" t="s">
+        <v>38</v>
+      </c>
+      <c r="G97">
+        <v>170</v>
+      </c>
+      <c r="H97">
+        <v>704</v>
+      </c>
+      <c r="I97">
+        <v>1000</v>
+      </c>
+      <c r="J97">
+        <v>1</v>
+      </c>
+      <c r="K97">
+        <v>437.6191875457874</v>
+      </c>
+      <c r="L97">
+        <v>0.05071759751456087</v>
+      </c>
+      <c r="M97">
+        <v>0.0628936835706518</v>
+      </c>
+      <c r="N97">
+        <v>0.0629139452980997</v>
+      </c>
+      <c r="O97">
+        <v>0.0629139452980997</v>
+      </c>
+      <c r="P97">
+        <v>0.0629139452980997</v>
+      </c>
+      <c r="Q97">
+        <v>0.0629139452980997</v>
+      </c>
+      <c r="R97">
+        <v>0.0629139452980997</v>
+      </c>
+      <c r="S97">
+        <v>0.06293420614938507</v>
+      </c>
+      <c r="T97">
+        <v>0.03978236413431171</v>
+      </c>
+      <c r="U97">
+        <v>0.03534048691476835</v>
+      </c>
+      <c r="V97">
+        <v>0.0654864098782405</v>
+      </c>
+      <c r="W97">
+        <v>0.03978236413431171</v>
+      </c>
+      <c r="X97">
+        <v>0.0504864098782405</v>
+      </c>
+      <c r="Y97">
+        <v>0.01262160246956012</v>
+      </c>
+      <c r="Z97">
+        <v>0.01262160246956012</v>
+      </c>
+    </row>
+    <row r="98" spans="1:26">
+      <c r="A98" s="1">
+        <v>96</v>
+      </c>
+      <c r="B98" t="s">
+        <v>28</v>
+      </c>
+      <c r="C98">
+        <v>5</v>
+      </c>
+      <c r="D98">
+        <v>12860</v>
+      </c>
+      <c r="E98">
+        <v>46.55980851933722</v>
+      </c>
+      <c r="F98" t="s">
+        <v>37</v>
+      </c>
+      <c r="G98">
+        <v>236</v>
+      </c>
+      <c r="H98">
+        <v>701</v>
+      </c>
+      <c r="I98">
+        <v>1000</v>
+      </c>
+      <c r="J98">
+        <v>9</v>
+      </c>
+      <c r="K98">
+        <v>419.0382766740349</v>
+      </c>
+      <c r="L98">
+        <v>0.07802359367649075</v>
+      </c>
+      <c r="M98">
+        <v>0.05939780769015723</v>
+      </c>
+      <c r="N98">
+        <v>0.06880382961325565</v>
+      </c>
+      <c r="O98">
+        <v>0.07802359367649075</v>
+      </c>
+      <c r="P98">
+        <v>0.08706257805221143</v>
+      </c>
+      <c r="Q98">
+        <v>0.09592604816820938</v>
+      </c>
+      <c r="R98">
+        <v>0.1046190669358227</v>
+      </c>
+      <c r="S98">
+        <v>0.1131465043935768</v>
+      </c>
+      <c r="T98">
+        <v>0.07809668971734042</v>
+      </c>
+      <c r="U98">
+        <v>0.06966565573250968</v>
+      </c>
+      <c r="V98">
+        <v>0.1119859229392514</v>
+      </c>
+      <c r="W98">
+        <v>0.0781635175731839</v>
+      </c>
+      <c r="X98">
+        <v>0.08640153885666363</v>
+      </c>
+      <c r="Y98">
+        <v>0.02160038471416591</v>
+      </c>
+      <c r="Z98">
+        <v>0.02160038471416591</v>
+      </c>
+    </row>
+    <row r="99" spans="1:26">
+      <c r="A99" s="1">
+        <v>97</v>
+      </c>
+      <c r="B99" t="s">
+        <v>33</v>
+      </c>
+      <c r="C99">
+        <v>12</v>
+      </c>
+      <c r="D99">
+        <v>2168</v>
+      </c>
+      <c r="E99">
+        <v>96.02998330717958</v>
+      </c>
+      <c r="F99" t="s">
+        <v>35</v>
+      </c>
+      <c r="G99">
+        <v>632</v>
+      </c>
+      <c r="H99">
+        <v>1125</v>
+      </c>
+      <c r="I99">
+        <v>1000</v>
+      </c>
+      <c r="J99">
+        <v>4</v>
+      </c>
+      <c r="K99">
+        <v>384.1199332287183</v>
+      </c>
+      <c r="L99">
+        <v>0.04209492960419374</v>
+      </c>
+      <c r="M99">
+        <v>0.03244349312665413</v>
+      </c>
+      <c r="N99">
+        <v>0.03390358845895803</v>
+      </c>
+      <c r="O99">
+        <v>0.03535928370487628</v>
+      </c>
+      <c r="P99">
+        <v>0.03681059872437738</v>
+      </c>
+      <c r="Q99">
+        <v>0.0382575532580913</v>
+      </c>
+      <c r="R99">
+        <v>0.03970016692820422</v>
+      </c>
+      <c r="S99">
+        <v>0.04113845923934526</v>
+      </c>
+      <c r="T99">
+        <v>0.03974247783066952</v>
+      </c>
+      <c r="U99">
+        <v>0.03444105622691045</v>
+      </c>
+      <c r="V99">
+        <v>0.05226436131953263</v>
+      </c>
+      <c r="W99">
+        <v>0.04368591525347106</v>
+      </c>
+      <c r="X99">
+        <v>0.03724911948333599</v>
+      </c>
+      <c r="Y99">
+        <v>0.009312279870833998</v>
+      </c>
+      <c r="Z99">
+        <v>0.009312279870833998</v>
+      </c>
+    </row>
+    <row r="100" spans="1:26">
+      <c r="A100" s="1">
+        <v>98</v>
+      </c>
+      <c r="B100" t="s">
+        <v>31</v>
+      </c>
+      <c r="C100">
+        <v>13</v>
+      </c>
+      <c r="D100">
+        <v>974</v>
+      </c>
+      <c r="E100">
+        <v>184.3037188180797</v>
+      </c>
+      <c r="F100" t="s">
+        <v>35</v>
+      </c>
+      <c r="G100">
+        <v>401</v>
+      </c>
+      <c r="H100">
+        <v>1126</v>
+      </c>
+      <c r="I100">
+        <v>1000</v>
+      </c>
+      <c r="J100">
+        <v>2</v>
+      </c>
+      <c r="K100">
+        <v>368.6074376361593</v>
+      </c>
+      <c r="L100">
+        <v>0.07034694164903073</v>
+      </c>
+      <c r="M100">
+        <v>0.05787236386924136</v>
+      </c>
+      <c r="N100">
+        <v>0.0620675887120628</v>
+      </c>
+      <c r="O100">
+        <v>0.0662256171344919</v>
+      </c>
+      <c r="P100">
+        <v>0.07034694164903073</v>
+      </c>
+      <c r="Q100">
+        <v>0.07443204611133881</v>
+      </c>
+      <c r="R100">
+        <v>0.0784814059096017</v>
+      </c>
+      <c r="S100">
+        <v>0.08249548814895005</v>
+      </c>
+      <c r="T100">
+        <v>0.05720080291357352</v>
+      </c>
+      <c r="U100">
+        <v>0.05275167246142004</v>
+      </c>
+      <c r="V100">
+        <v>0.07880871890383725</v>
+      </c>
+      <c r="W100">
+        <v>0.05485270908261584</v>
+      </c>
+      <c r="X100">
+        <v>0.06126094857176744</v>
+      </c>
+      <c r="Y100">
+        <v>0.01531523714294186</v>
+      </c>
+      <c r="Z100">
+        <v>0.01531523714294186</v>
+      </c>
+    </row>
+    <row r="101" spans="1:26">
+      <c r="A101" s="1">
+        <v>99</v>
+      </c>
+      <c r="B101" t="s">
+        <v>28</v>
+      </c>
+      <c r="C101">
+        <v>10</v>
+      </c>
+      <c r="D101">
+        <v>12861</v>
+      </c>
+      <c r="E101">
+        <v>46.55992938228801</v>
+      </c>
+      <c r="F101" t="s">
+        <v>37</v>
+      </c>
+      <c r="G101">
+        <v>236</v>
+      </c>
+      <c r="H101">
+        <v>701</v>
+      </c>
+      <c r="I101">
+        <v>1000</v>
+      </c>
+      <c r="J101">
+        <v>6</v>
+      </c>
+      <c r="K101">
+        <v>279.3595762937281</v>
+      </c>
+      <c r="L101">
+        <v>0.07802120035073244</v>
+      </c>
+      <c r="M101">
+        <v>0.05939536601438361</v>
+      </c>
+      <c r="N101">
+        <v>0.06880141235423977</v>
+      </c>
+      <c r="O101">
+        <v>0.07802120035073244</v>
+      </c>
+      <c r="P101">
+        <v>0.08706020819043114</v>
+      </c>
+      <c r="Q101">
+        <v>0.0959237013147959</v>
+      </c>
+      <c r="R101">
+        <v>0.1046167426483075</v>
+      </c>
+      <c r="S101">
+        <v>0.1131442022421331</v>
+      </c>
+      <c r="T101">
+        <v>0.07808472043027276</v>
+      </c>
+      <c r="U101">
+        <v>0.06958501468879144</v>
+      </c>
+      <c r="V101">
+        <v>0.1121665492298296</v>
+      </c>
+      <c r="W101">
+        <v>0.08033215224470824</v>
+      </c>
+      <c r="X101">
+        <v>0.08640153885666363</v>
+      </c>
+      <c r="Y101">
+        <v>0.02160038471416591</v>
+      </c>
+      <c r="Z101">
+        <v>0.02160038471416591</v>
+      </c>
+    </row>
+    <row r="102" spans="1:26">
+      <c r="A102" s="1">
+        <v>100</v>
+      </c>
+      <c r="B102" t="s">
+        <v>30</v>
+      </c>
+      <c r="C102">
+        <v>10</v>
+      </c>
+      <c r="D102">
+        <v>12852</v>
+      </c>
+      <c r="E102">
+        <v>46.55974593788347</v>
+      </c>
+      <c r="F102" t="s">
+        <v>36</v>
+      </c>
+      <c r="G102">
+        <v>337</v>
+      </c>
+      <c r="H102">
+        <v>703</v>
+      </c>
+      <c r="I102">
+        <v>1000</v>
+      </c>
+      <c r="J102">
+        <v>6</v>
+      </c>
+      <c r="K102">
+        <v>279.3584756273008</v>
+      </c>
+      <c r="L102">
+        <v>0.1002947644853436</v>
+      </c>
+      <c r="M102">
+        <v>0.06848314328276549</v>
+      </c>
+      <c r="N102">
+        <v>0.0688050812423306</v>
+      </c>
+      <c r="O102">
+        <v>0.0688050812423306</v>
+      </c>
+      <c r="P102">
+        <v>0.0688050812423306</v>
+      </c>
+      <c r="Q102">
+        <v>0.0688050812423306</v>
+      </c>
+      <c r="R102">
+        <v>0.0688050812423306</v>
+      </c>
+      <c r="S102">
+        <v>0.06912679675129503</v>
+      </c>
+      <c r="T102">
+        <v>0.06888756102724054</v>
+      </c>
+      <c r="U102">
+        <v>0.06048107719966452</v>
+      </c>
+      <c r="V102">
+        <v>0.1065431031591503</v>
+      </c>
+      <c r="W102">
+        <v>0.06903547113340679</v>
+      </c>
+      <c r="X102">
+        <v>0.08640153885666363</v>
+      </c>
+      <c r="Y102">
+        <v>0.02160038471416591</v>
+      </c>
+      <c r="Z102">
+        <v>0.02160038471416591</v>
+      </c>
+    </row>
+    <row r="103" spans="1:26">
+      <c r="A103" s="1">
+        <v>101</v>
+      </c>
+      <c r="B103" t="s">
+        <v>31</v>
+      </c>
+      <c r="C103">
+        <v>4</v>
+      </c>
+      <c r="D103">
+        <v>12032</v>
+      </c>
+      <c r="E103">
+        <v>96.60031628975777</v>
+      </c>
+      <c r="F103" t="s">
+        <v>35</v>
+      </c>
+      <c r="G103">
+        <v>401</v>
+      </c>
+      <c r="H103">
+        <v>1126</v>
+      </c>
+      <c r="I103">
+        <v>1000</v>
+      </c>
+      <c r="J103">
+        <v>2</v>
+      </c>
+      <c r="K103">
+        <v>193.2006325795155</v>
+      </c>
+      <c r="L103">
+        <v>0.09295477662199277</v>
+      </c>
+      <c r="M103">
+        <v>0.07603714691766848</v>
+      </c>
+      <c r="N103">
+        <v>0.07736087593354567</v>
+      </c>
+      <c r="O103">
+        <v>0.07868081745581521</v>
+      </c>
+      <c r="P103">
+        <v>0.07999698771659265</v>
+      </c>
+      <c r="Q103">
+        <v>0.09295477662199277</v>
+      </c>
+      <c r="R103">
+        <v>0.1055526269466873</v>
+      </c>
+      <c r="S103">
+        <v>0.106793191957857</v>
+      </c>
+      <c r="T103">
+        <v>0.09072552540659801</v>
+      </c>
+      <c r="U103">
+        <v>0.08229288754252188</v>
+      </c>
+      <c r="V103">
+        <v>0.127574509927318</v>
+      </c>
+      <c r="W103">
+        <v>0.09072356532649471</v>
+      </c>
+      <c r="X103">
+        <v>0.09881791201777561</v>
+      </c>
+      <c r="Y103">
+        <v>0.0247044780044439</v>
+      </c>
+      <c r="Z103">
+        <v>0.0247044780044439</v>
+      </c>
+    </row>
+    <row r="104" spans="1:26">
+      <c r="A104" s="1">
+        <v>102</v>
+      </c>
+      <c r="B104" t="s">
+        <v>31</v>
+      </c>
+      <c r="C104">
+        <v>9</v>
+      </c>
+      <c r="D104">
+        <v>975</v>
+      </c>
+      <c r="E104">
+        <v>92.14999916674802</v>
+      </c>
+      <c r="F104" t="s">
+        <v>35</v>
+      </c>
+      <c r="G104">
+        <v>401</v>
+      </c>
+      <c r="H104">
+        <v>1126</v>
+      </c>
+      <c r="I104">
+        <v>1000</v>
+      </c>
+      <c r="J104">
+        <v>2</v>
+      </c>
+      <c r="K104">
+        <v>184.299998333496</v>
+      </c>
+      <c r="L104">
+        <v>0.0300000087710735</v>
+      </c>
+      <c r="M104">
+        <v>0.02987489133025155</v>
+      </c>
+      <c r="N104">
+        <v>0.0300000087710735</v>
+      </c>
+      <c r="O104">
+        <v>0.0300000087710735</v>
+      </c>
+      <c r="P104">
+        <v>0.0300000087710735</v>
+      </c>
+      <c r="Q104">
+        <v>0.0300000087710735</v>
+      </c>
+      <c r="R104">
+        <v>0.0300000087710735</v>
+      </c>
+      <c r="S104">
+        <v>0.03012509394315988</v>
+      </c>
+      <c r="T104">
+        <v>0.03910324470116697</v>
+      </c>
+      <c r="U104">
+        <v>0.04288266400023718</v>
+      </c>
+      <c r="V104">
+        <v>0.08744462233000205</v>
+      </c>
+      <c r="W104">
+        <v>0.04010435076293047</v>
+      </c>
+      <c r="X104">
+        <v>0.06126094857176744</v>
+      </c>
+      <c r="Y104">
+        <v>0.01531523714294186</v>
+      </c>
+      <c r="Z104">
+        <v>0.01531523714294186</v>
+      </c>
+    </row>
+    <row r="105" spans="1:26">
+      <c r="A105" s="1">
+        <v>103</v>
+      </c>
+      <c r="B105" t="s">
+        <v>33</v>
+      </c>
+      <c r="C105">
+        <v>4</v>
+      </c>
+      <c r="D105">
+        <v>2267</v>
+      </c>
+      <c r="E105">
+        <v>31.9510548804072</v>
+      </c>
+      <c r="F105" t="s">
+        <v>35</v>
+      </c>
+      <c r="G105">
+        <v>632</v>
+      </c>
+      <c r="H105">
+        <v>1125</v>
+      </c>
+      <c r="I105">
+        <v>1000</v>
+      </c>
+      <c r="J105">
+        <v>4</v>
+      </c>
+      <c r="K105">
+        <v>127.8042195216288</v>
+      </c>
+      <c r="L105">
+        <v>1000</v>
+      </c>
+      <c r="M105">
+        <v>1000</v>
+      </c>
+      <c r="N105">
+        <v>1000</v>
+      </c>
+      <c r="O105">
+        <v>1000</v>
+      </c>
+      <c r="P105">
+        <v>1000</v>
+      </c>
+      <c r="Q105">
+        <v>1000</v>
+      </c>
+      <c r="R105">
+        <v>1000</v>
+      </c>
+      <c r="S105">
+        <v>1000</v>
+      </c>
+      <c r="T105">
+        <v>0.07048246723457384</v>
+      </c>
+      <c r="U105">
+        <v>0.0402163645730861</v>
+      </c>
+      <c r="V105">
+        <v>0.0769609906680495</v>
+      </c>
+      <c r="W105">
+        <v>0.07048246723457384</v>
+      </c>
+      <c r="X105">
+        <v>0.05130732711203304</v>
+      </c>
+      <c r="Y105">
+        <v>0.01282683177800826</v>
+      </c>
+      <c r="Z105">
+        <v>0.01282683177800826</v>
+      </c>
+    </row>
+    <row r="106" spans="1:26">
+      <c r="A106" s="1">
+        <v>104</v>
+      </c>
+      <c r="B106" t="s">
+        <v>31</v>
+      </c>
+      <c r="C106">
+        <v>105</v>
+      </c>
+      <c r="D106">
+        <v>12343</v>
+      </c>
+      <c r="E106">
+        <v>42.51620000314121</v>
+      </c>
+      <c r="F106" t="s">
+        <v>35</v>
+      </c>
+      <c r="G106">
+        <v>401</v>
+      </c>
+      <c r="H106">
+        <v>1126</v>
+      </c>
+      <c r="I106">
+        <v>1000</v>
+      </c>
+      <c r="J106">
+        <v>3</v>
+      </c>
+      <c r="K106">
+        <v>127.5486000094236</v>
+      </c>
+      <c r="L106">
+        <v>0.1001862433197627</v>
+      </c>
+      <c r="M106">
+        <v>0.09056256677772802</v>
+      </c>
+      <c r="N106">
+        <v>0.09539999993316564</v>
+      </c>
+      <c r="O106">
+        <v>0.09732059441313771</v>
+      </c>
+      <c r="P106">
+        <v>0.09923305078090652</v>
+      </c>
+      <c r="Q106">
+        <v>0.1068025209424115</v>
+      </c>
+      <c r="R106">
+        <v>0.1142458332678914</v>
+      </c>
+      <c r="S106">
+        <v>0.1188352330955189</v>
+      </c>
+      <c r="T106">
+        <v>0.1017158732593117</v>
+      </c>
+      <c r="U106">
+        <v>0.07891616697978153</v>
+      </c>
+      <c r="V106">
+        <v>0.1305874729456593</v>
+      </c>
+      <c r="W106">
+        <v>0.1027769827461035</v>
+      </c>
+      <c r="X106">
+        <v>0.1060009378134603</v>
+      </c>
+      <c r="Y106">
+        <v>0.02650023445336507</v>
+      </c>
+      <c r="Z106">
+        <v>0.02650023445336507</v>
       </c>
     </row>
   </sheetData>
